--- a/codeLibrary/R/R/NDSU13.xlsx
+++ b/codeLibrary/R/R/NDSU13.xlsx
@@ -8,21 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D77646-7C20-9249-AF75-D7CFF6BDD597}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2D2F37-AFB6-EB4A-8C0D-C589D4A0078C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37840" yWindow="-4620" windowWidth="26840" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11140" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tx1" sheetId="1" r:id="rId1"/>
     <sheet name="Tx2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="28">
   <si>
     <t>Com. Angus</t>
   </si>
@@ -49,21 +48,6 @@
   </si>
   <si>
     <t>IS</t>
-  </si>
-  <si>
-    <t>&gt;=256</t>
-  </si>
-  <si>
-    <t>Unk</t>
-  </si>
-  <si>
-    <t>--</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
   </si>
   <si>
     <t>Died</t>
@@ -196,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -207,15 +191,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -574,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R215"/>
+  <dimension ref="A1:R80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="A157" sqref="A157:XFD297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -588,58 +563,58 @@
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="J1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="K1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="L1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="M1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="N1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="O1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="P1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="Q1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="R1" s="15" t="s">
         <v>27</v>
-      </c>
-      <c r="N1" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="R1" s="20" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="16" x14ac:dyDescent="0.2">
@@ -664,37 +639,37 @@
       <c r="G2" s="1">
         <v>32</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="8">
         <v>5</v>
       </c>
       <c r="I2" s="1">
         <v>16</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="8">
         <v>4</v>
       </c>
       <c r="K2" s="1">
         <v>3</v>
       </c>
-      <c r="L2" s="13">
+      <c r="L2" s="8">
         <v>1.5</v>
       </c>
       <c r="M2" s="1">
         <v>32</v>
       </c>
-      <c r="N2" s="13">
+      <c r="N2" s="8">
         <v>5</v>
       </c>
       <c r="O2" s="1">
         <v>4</v>
       </c>
-      <c r="P2" s="13">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="17">
+      <c r="P2" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="12">
         <v>64</v>
       </c>
-      <c r="R2" s="13">
+      <c r="R2" s="8">
         <v>6</v>
       </c>
     </row>
@@ -720,37 +695,37 @@
       <c r="G3" s="1">
         <v>8</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="8">
         <v>3</v>
       </c>
       <c r="I3" s="1">
         <v>8</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="8">
         <v>3</v>
       </c>
       <c r="K3" s="1">
         <v>8</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="8">
         <v>3</v>
       </c>
       <c r="M3" s="5">
         <v>32</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N3" s="8">
         <v>5</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="17">
-        <v>4</v>
-      </c>
-      <c r="R3" s="13">
+      <c r="P3" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="12">
+        <v>4</v>
+      </c>
+      <c r="R3" s="8">
         <v>2</v>
       </c>
     </row>
@@ -776,37 +751,37 @@
       <c r="G4" s="1">
         <v>64</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="8">
         <v>6</v>
       </c>
       <c r="I4" s="1">
         <v>16</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="8">
         <v>4</v>
       </c>
       <c r="K4" s="1">
         <v>16</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="8">
         <v>4</v>
       </c>
       <c r="M4" s="5">
         <v>32</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="8">
         <v>5</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="R4" s="13">
+      <c r="P4" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" s="8">
         <v>1</v>
       </c>
     </row>
@@ -832,37 +807,37 @@
       <c r="G5" s="1">
         <v>2</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="8">
         <v>1</v>
       </c>
       <c r="I5" s="1">
         <v>2</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="8">
         <v>1</v>
       </c>
       <c r="K5" s="1">
         <v>16</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="8">
         <v>4</v>
       </c>
       <c r="M5" s="1">
         <v>128</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5" s="8">
         <v>7</v>
       </c>
       <c r="O5" s="1">
         <v>4</v>
       </c>
-      <c r="P5" s="13">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="R5" s="13">
+      <c r="P5" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R5" s="8">
         <v>8</v>
       </c>
     </row>
@@ -888,37 +863,37 @@
       <c r="G6" s="1">
         <v>2</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="8">
         <v>1</v>
       </c>
       <c r="I6" s="1">
         <v>3</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="8">
         <v>1.5</v>
       </c>
       <c r="K6" s="1">
         <v>8</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="8">
         <v>3</v>
       </c>
       <c r="M6" s="1">
         <v>32</v>
       </c>
-      <c r="N6" s="13">
+      <c r="N6" s="8">
         <v>5</v>
       </c>
       <c r="O6" s="1">
         <v>128</v>
       </c>
-      <c r="P6" s="13">
+      <c r="P6" s="8">
         <v>7</v>
       </c>
-      <c r="Q6" s="17">
+      <c r="Q6" s="12">
         <v>128</v>
       </c>
-      <c r="R6" s="13">
+      <c r="R6" s="8">
         <v>7</v>
       </c>
     </row>
@@ -944,37 +919,37 @@
       <c r="G7" s="1">
         <v>16</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="8">
         <v>4</v>
       </c>
       <c r="I7" s="1">
         <v>8</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="8">
         <v>3</v>
       </c>
       <c r="K7" s="1">
         <v>16</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="8">
         <v>4</v>
       </c>
       <c r="M7" s="1">
         <v>16</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="8">
         <v>4</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P7" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="17">
-        <v>16</v>
-      </c>
-      <c r="R7" s="13">
+      <c r="P7" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>16</v>
+      </c>
+      <c r="R7" s="8">
         <v>4</v>
       </c>
     </row>
@@ -1000,35 +975,35 @@
       <c r="G8" s="1">
         <v>8</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="8">
         <v>3</v>
       </c>
       <c r="I8" s="1">
         <v>4</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="8">
         <v>2</v>
       </c>
       <c r="K8" s="1">
         <v>4</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="8">
         <v>2</v>
       </c>
       <c r="M8" s="1">
         <v>8</v>
       </c>
-      <c r="N8" s="13">
-        <v>3</v>
-      </c>
-      <c r="O8" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="R8" s="13">
+      <c r="N8" s="8">
+        <v>3</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="R8" s="8">
         <v>2</v>
       </c>
     </row>
@@ -1054,37 +1029,37 @@
       <c r="G9" s="1">
         <v>2</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="8">
         <v>1</v>
       </c>
       <c r="I9" s="1">
         <v>4</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="8">
         <v>2</v>
       </c>
       <c r="K9" s="1">
         <v>2</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="8">
         <v>1</v>
       </c>
       <c r="M9" s="1">
         <v>8</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9" s="8">
         <v>3</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P9" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="17">
-        <v>32</v>
-      </c>
-      <c r="R9" s="13">
+      <c r="P9" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="12">
+        <v>32</v>
+      </c>
+      <c r="R9" s="8">
         <v>5</v>
       </c>
     </row>
@@ -1110,37 +1085,37 @@
       <c r="G10" s="1">
         <v>2</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="8">
         <v>1</v>
       </c>
       <c r="I10" s="1">
         <v>4</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="8">
         <v>2</v>
       </c>
       <c r="K10" s="1">
         <v>2</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="8">
         <v>1</v>
       </c>
       <c r="M10" s="1">
         <v>16</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N10" s="8">
         <v>4</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P10" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="17">
-        <v>16</v>
-      </c>
-      <c r="R10" s="13">
+      <c r="P10" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>16</v>
+      </c>
+      <c r="R10" s="8">
         <v>4</v>
       </c>
     </row>
@@ -1166,37 +1141,37 @@
       <c r="G11" s="1">
         <v>8</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="8">
         <v>3</v>
       </c>
       <c r="I11" s="1">
         <v>3</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="8">
         <v>1.5</v>
       </c>
       <c r="K11" s="1">
         <v>4</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="8">
         <v>2</v>
       </c>
       <c r="M11" s="1">
         <v>8</v>
       </c>
-      <c r="N11" s="13">
+      <c r="N11" s="8">
         <v>3</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P11" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="17">
+      <c r="P11" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="12">
         <v>128</v>
       </c>
-      <c r="R11" s="13">
+      <c r="R11" s="8">
         <v>7</v>
       </c>
     </row>
@@ -1222,37 +1197,37 @@
       <c r="G12" s="1">
         <v>8</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="8">
         <v>3</v>
       </c>
       <c r="I12" s="1">
         <v>256</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="8">
         <v>8</v>
       </c>
       <c r="K12" s="1">
         <v>64</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="8">
         <v>6</v>
       </c>
       <c r="M12" s="1">
         <v>64</v>
       </c>
-      <c r="N12" s="13">
+      <c r="N12" s="8">
         <v>6</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P12" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="17">
-        <v>4</v>
-      </c>
-      <c r="R12" s="13">
+      <c r="P12" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>4</v>
+      </c>
+      <c r="R12" s="8">
         <v>2</v>
       </c>
     </row>
@@ -1278,37 +1253,37 @@
       <c r="G13" s="1">
         <v>3</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="8">
         <v>1.5</v>
       </c>
       <c r="I13" s="1">
         <v>16</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="8">
         <v>4</v>
       </c>
       <c r="K13" s="1">
         <v>2</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="8">
         <v>1</v>
       </c>
       <c r="M13" s="5">
         <v>8</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N13" s="8">
         <v>3</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P13" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="17">
-        <v>4</v>
-      </c>
-      <c r="R13" s="13">
+      <c r="P13" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="12">
+        <v>4</v>
+      </c>
+      <c r="R13" s="8">
         <v>2</v>
       </c>
     </row>
@@ -1334,37 +1309,37 @@
       <c r="G14" s="1">
         <v>4</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="8">
         <v>2</v>
       </c>
       <c r="I14" s="1">
         <v>4</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="8">
         <v>2</v>
       </c>
       <c r="K14" s="1">
         <v>64</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14" s="8">
         <v>6</v>
       </c>
       <c r="M14" s="1">
         <v>32</v>
       </c>
-      <c r="N14" s="13">
+      <c r="N14" s="8">
         <v>5</v>
       </c>
       <c r="O14" s="1">
         <v>4</v>
       </c>
-      <c r="P14" s="13">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="17">
-        <v>32</v>
-      </c>
-      <c r="R14" s="13">
+      <c r="P14" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="12">
+        <v>32</v>
+      </c>
+      <c r="R14" s="8">
         <v>5</v>
       </c>
     </row>
@@ -1390,35 +1365,35 @@
       <c r="G15" s="1">
         <v>2</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="8">
         <v>1</v>
       </c>
       <c r="I15" s="1">
         <v>4</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="8">
         <v>2</v>
       </c>
       <c r="K15" s="1">
         <v>8</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="8">
         <v>3</v>
       </c>
       <c r="M15" s="1">
         <v>16</v>
       </c>
-      <c r="N15" s="13">
-        <v>4</v>
-      </c>
-      <c r="O15" s="14" t="s">
+      <c r="N15" s="8">
+        <v>4</v>
+      </c>
+      <c r="O15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="18" t="s">
+      <c r="P15" s="9"/>
+      <c r="Q15" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="R15" s="14"/>
+      <c r="R15" s="9"/>
     </row>
     <row r="16" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
@@ -1442,37 +1417,37 @@
       <c r="G16" s="1">
         <v>4</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="8">
         <v>2</v>
       </c>
       <c r="I16" s="1">
         <v>16</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="8">
         <v>4</v>
       </c>
       <c r="K16" s="1">
         <v>8</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L16" s="8">
         <v>3</v>
       </c>
       <c r="M16" s="1">
         <v>32</v>
       </c>
-      <c r="N16" s="13">
+      <c r="N16" s="8">
         <v>5</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P16" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="17">
-        <v>32</v>
-      </c>
-      <c r="R16" s="13">
+      <c r="P16" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="12">
+        <v>32</v>
+      </c>
+      <c r="R16" s="8">
         <v>5</v>
       </c>
     </row>
@@ -1498,37 +1473,37 @@
       <c r="G17" s="1">
         <v>2</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="8">
         <v>1</v>
       </c>
       <c r="I17" s="1">
         <v>8</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="8">
         <v>3</v>
       </c>
       <c r="K17" s="1">
         <v>16</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="8">
         <v>4</v>
       </c>
       <c r="M17" s="1">
         <v>32</v>
       </c>
-      <c r="N17" s="13">
+      <c r="N17" s="8">
         <v>5</v>
       </c>
       <c r="O17" s="1">
         <v>8</v>
       </c>
-      <c r="P17" s="13">
-        <v>3</v>
-      </c>
-      <c r="Q17" s="17">
+      <c r="P17" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="12">
         <v>128</v>
       </c>
-      <c r="R17" s="13">
+      <c r="R17" s="8">
         <v>7</v>
       </c>
     </row>
@@ -1554,37 +1529,37 @@
       <c r="G18" s="1">
         <v>2</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="8">
         <v>1</v>
       </c>
       <c r="I18" s="1">
         <v>8</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="8">
         <v>3</v>
       </c>
       <c r="K18" s="1">
         <v>4</v>
       </c>
-      <c r="L18" s="13">
+      <c r="L18" s="8">
         <v>2</v>
       </c>
       <c r="M18" s="1">
         <v>256</v>
       </c>
-      <c r="N18" s="13">
+      <c r="N18" s="8">
         <v>8</v>
       </c>
       <c r="O18" s="1">
         <v>8</v>
       </c>
-      <c r="P18" s="13">
-        <v>3</v>
-      </c>
-      <c r="Q18" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="R18" s="13">
+      <c r="P18" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" s="8">
         <v>8</v>
       </c>
     </row>
@@ -1610,37 +1585,37 @@
       <c r="G19" s="1">
         <v>256</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="8">
         <v>8</v>
       </c>
       <c r="I19" s="1">
         <v>32</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="8">
         <v>5</v>
       </c>
       <c r="K19" s="1">
         <v>16</v>
       </c>
-      <c r="L19" s="13">
+      <c r="L19" s="8">
         <v>4</v>
       </c>
       <c r="M19" s="1">
         <v>128</v>
       </c>
-      <c r="N19" s="13">
+      <c r="N19" s="8">
         <v>7</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P19" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="17">
-        <v>32</v>
-      </c>
-      <c r="R19" s="13">
+      <c r="P19" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="12">
+        <v>32</v>
+      </c>
+      <c r="R19" s="8">
         <v>5</v>
       </c>
     </row>
@@ -1666,37 +1641,37 @@
       <c r="G20" s="1">
         <v>2</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="8">
         <v>1</v>
       </c>
       <c r="I20" s="1">
         <v>2</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="8">
         <v>1</v>
       </c>
       <c r="K20" s="1">
         <v>2</v>
       </c>
-      <c r="L20" s="13">
+      <c r="L20" s="8">
         <v>1</v>
       </c>
       <c r="M20" s="1">
         <v>32</v>
       </c>
-      <c r="N20" s="13">
+      <c r="N20" s="8">
         <v>5</v>
       </c>
       <c r="O20" s="1">
         <v>4</v>
       </c>
-      <c r="P20" s="13">
-        <v>2</v>
-      </c>
-      <c r="Q20" s="17">
+      <c r="P20" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="12">
         <v>128</v>
       </c>
-      <c r="R20" s="13">
+      <c r="R20" s="8">
         <v>7</v>
       </c>
     </row>
@@ -1722,37 +1697,37 @@
       <c r="G21" s="1">
         <v>32</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="8">
         <v>5</v>
       </c>
       <c r="I21" s="1">
         <v>8</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J21" s="8">
         <v>3</v>
       </c>
       <c r="K21" s="1">
         <v>8</v>
       </c>
-      <c r="L21" s="13">
+      <c r="L21" s="8">
         <v>3</v>
       </c>
       <c r="M21" s="1">
         <v>64</v>
       </c>
-      <c r="N21" s="13">
+      <c r="N21" s="8">
         <v>6</v>
       </c>
       <c r="O21" s="1">
         <v>8</v>
       </c>
-      <c r="P21" s="13">
-        <v>3</v>
-      </c>
-      <c r="Q21" s="17">
-        <v>8</v>
-      </c>
-      <c r="R21" s="13">
+      <c r="P21" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="12">
+        <v>8</v>
+      </c>
+      <c r="R21" s="8">
         <v>3</v>
       </c>
     </row>
@@ -1778,37 +1753,37 @@
       <c r="G22" s="1">
         <v>3</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="8">
         <v>1.5</v>
       </c>
       <c r="I22" s="1">
         <v>16</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J22" s="8">
         <v>4</v>
       </c>
       <c r="K22" s="1">
         <v>4</v>
       </c>
-      <c r="L22" s="13">
+      <c r="L22" s="8">
         <v>2</v>
       </c>
       <c r="M22" s="1">
         <v>4</v>
       </c>
-      <c r="N22" s="13">
+      <c r="N22" s="8">
         <v>2</v>
       </c>
       <c r="O22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P22" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="17">
+      <c r="P22" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="12">
         <v>128</v>
       </c>
-      <c r="R22" s="13">
+      <c r="R22" s="8">
         <v>7</v>
       </c>
     </row>
@@ -1834,37 +1809,37 @@
       <c r="G23" s="1">
         <v>4</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="8">
         <v>2</v>
       </c>
       <c r="I23" s="1">
         <v>8</v>
       </c>
-      <c r="J23" s="13">
+      <c r="J23" s="8">
         <v>3</v>
       </c>
       <c r="K23" s="1">
         <v>8</v>
       </c>
-      <c r="L23" s="13">
+      <c r="L23" s="8">
         <v>3</v>
       </c>
       <c r="M23" s="1">
         <v>8</v>
       </c>
-      <c r="N23" s="13">
+      <c r="N23" s="8">
         <v>3</v>
       </c>
       <c r="O23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P23" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="17">
-        <v>8</v>
-      </c>
-      <c r="R23" s="13">
+      <c r="P23" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="12">
+        <v>8</v>
+      </c>
+      <c r="R23" s="8">
         <v>3</v>
       </c>
     </row>
@@ -1890,37 +1865,37 @@
       <c r="G24" s="1">
         <v>16</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="8">
         <v>4</v>
       </c>
       <c r="I24" s="1">
         <v>128</v>
       </c>
-      <c r="J24" s="13">
+      <c r="J24" s="8">
         <v>7</v>
       </c>
       <c r="K24" s="1">
         <v>3</v>
       </c>
-      <c r="L24" s="13">
+      <c r="L24" s="8">
         <v>1.5</v>
       </c>
       <c r="M24" s="1">
         <v>16</v>
       </c>
-      <c r="N24" s="13">
+      <c r="N24" s="8">
         <v>4</v>
       </c>
       <c r="O24" s="1">
         <v>4</v>
       </c>
-      <c r="P24" s="13">
-        <v>2</v>
-      </c>
-      <c r="Q24" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="R24" s="13">
+      <c r="P24" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="R24" s="8">
         <v>1</v>
       </c>
     </row>
@@ -1946,37 +1921,37 @@
       <c r="G25" s="1">
         <v>16</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25" s="8">
         <v>4</v>
       </c>
       <c r="I25" s="1">
         <v>32</v>
       </c>
-      <c r="J25" s="13">
+      <c r="J25" s="8">
         <v>5</v>
       </c>
       <c r="K25" s="1">
         <v>8</v>
       </c>
-      <c r="L25" s="13">
+      <c r="L25" s="8">
         <v>3</v>
       </c>
       <c r="M25" s="1">
         <v>64</v>
       </c>
-      <c r="N25" s="13">
+      <c r="N25" s="8">
         <v>6</v>
       </c>
       <c r="O25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P25" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="R25" s="13">
+      <c r="P25" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="R25" s="8">
         <v>1</v>
       </c>
     </row>
@@ -2002,37 +1977,37 @@
       <c r="G26" s="1">
         <v>4</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H26" s="8">
         <v>2</v>
       </c>
       <c r="I26" s="1">
         <v>8</v>
       </c>
-      <c r="J26" s="13">
+      <c r="J26" s="8">
         <v>3</v>
       </c>
       <c r="K26" s="1">
         <v>8</v>
       </c>
-      <c r="L26" s="13">
+      <c r="L26" s="8">
         <v>3</v>
       </c>
       <c r="M26" s="1">
         <v>16</v>
       </c>
-      <c r="N26" s="13">
+      <c r="N26" s="8">
         <v>4</v>
       </c>
       <c r="O26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P26" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="17">
+      <c r="P26" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="12">
         <v>64</v>
       </c>
-      <c r="R26" s="13">
+      <c r="R26" s="8">
         <v>6</v>
       </c>
     </row>
@@ -2058,37 +2033,37 @@
       <c r="G27" s="1">
         <v>2</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H27" s="8">
         <v>1</v>
       </c>
       <c r="I27" s="1">
         <v>4</v>
       </c>
-      <c r="J27" s="13">
+      <c r="J27" s="8">
         <v>2</v>
       </c>
       <c r="K27" s="1">
         <v>16</v>
       </c>
-      <c r="L27" s="13">
+      <c r="L27" s="8">
         <v>4</v>
       </c>
       <c r="M27" s="5">
         <v>64</v>
       </c>
-      <c r="N27" s="13">
+      <c r="N27" s="8">
         <v>6</v>
       </c>
       <c r="O27" s="1">
         <v>8</v>
       </c>
-      <c r="P27" s="13">
-        <v>3</v>
-      </c>
-      <c r="Q27" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="R27" s="13">
+      <c r="P27" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R27" s="8">
         <v>8</v>
       </c>
     </row>
@@ -2114,37 +2089,37 @@
       <c r="G28" s="1">
         <v>2</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H28" s="8">
         <v>1</v>
       </c>
       <c r="I28" s="1">
         <v>16</v>
       </c>
-      <c r="J28" s="13">
+      <c r="J28" s="8">
         <v>4</v>
       </c>
       <c r="K28" s="1">
         <v>4</v>
       </c>
-      <c r="L28" s="13">
+      <c r="L28" s="8">
         <v>2</v>
       </c>
       <c r="M28" s="5">
         <v>8</v>
       </c>
-      <c r="N28" s="13">
+      <c r="N28" s="8">
         <v>3</v>
       </c>
       <c r="O28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P28" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="17">
-        <v>4</v>
-      </c>
-      <c r="R28" s="13">
+      <c r="P28" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="12">
+        <v>4</v>
+      </c>
+      <c r="R28" s="8">
         <v>2</v>
       </c>
     </row>
@@ -2170,37 +2145,37 @@
       <c r="G29" s="1">
         <v>4</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H29" s="8">
         <v>2</v>
       </c>
       <c r="I29" s="1">
         <v>4</v>
       </c>
-      <c r="J29" s="13">
+      <c r="J29" s="8">
         <v>2</v>
       </c>
       <c r="K29" s="1">
         <v>8</v>
       </c>
-      <c r="L29" s="13">
+      <c r="L29" s="8">
         <v>3</v>
       </c>
       <c r="M29" s="1">
         <v>64</v>
       </c>
-      <c r="N29" s="13">
+      <c r="N29" s="8">
         <v>6</v>
       </c>
       <c r="O29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P29" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="17">
-        <v>32</v>
-      </c>
-      <c r="R29" s="13">
+      <c r="P29" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="12">
+        <v>32</v>
+      </c>
+      <c r="R29" s="8">
         <v>5</v>
       </c>
     </row>
@@ -2226,37 +2201,37 @@
       <c r="G30" s="1">
         <v>64</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H30" s="8">
         <v>6</v>
       </c>
       <c r="I30" s="1">
         <v>256</v>
       </c>
-      <c r="J30" s="13">
+      <c r="J30" s="8">
         <v>8</v>
       </c>
       <c r="K30" s="1">
         <v>32</v>
       </c>
-      <c r="L30" s="13">
+      <c r="L30" s="8">
         <v>5</v>
       </c>
       <c r="M30" s="1">
         <v>256</v>
       </c>
-      <c r="N30" s="13">
+      <c r="N30" s="8">
         <v>8</v>
       </c>
       <c r="O30" s="1">
         <v>4</v>
       </c>
-      <c r="P30" s="13">
-        <v>2</v>
-      </c>
-      <c r="Q30" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="R30" s="13">
+      <c r="P30" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q30" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="R30" s="8">
         <v>1</v>
       </c>
     </row>
@@ -2282,37 +2257,37 @@
       <c r="G31" s="1">
         <v>3</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H31" s="8">
         <v>1.5</v>
       </c>
       <c r="I31" s="1">
         <v>3</v>
       </c>
-      <c r="J31" s="13">
+      <c r="J31" s="8">
         <v>1.5</v>
       </c>
       <c r="K31" s="1">
         <v>32</v>
       </c>
-      <c r="L31" s="13">
+      <c r="L31" s="8">
         <v>5</v>
       </c>
       <c r="M31" s="1">
         <v>8</v>
       </c>
-      <c r="N31" s="13">
+      <c r="N31" s="8">
         <v>3</v>
       </c>
       <c r="O31" s="1">
         <v>4</v>
       </c>
-      <c r="P31" s="13">
-        <v>2</v>
-      </c>
-      <c r="Q31" s="17">
-        <v>8</v>
-      </c>
-      <c r="R31" s="13">
+      <c r="P31" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q31" s="12">
+        <v>8</v>
+      </c>
+      <c r="R31" s="8">
         <v>3</v>
       </c>
     </row>
@@ -2338,37 +2313,37 @@
       <c r="G32" s="1">
         <v>3</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H32" s="8">
         <v>1.5</v>
       </c>
       <c r="I32" s="1">
         <v>8</v>
       </c>
-      <c r="J32" s="13">
+      <c r="J32" s="8">
         <v>3</v>
       </c>
       <c r="K32" s="1">
         <v>4</v>
       </c>
-      <c r="L32" s="13">
+      <c r="L32" s="8">
         <v>2</v>
       </c>
       <c r="M32" s="1">
         <v>16</v>
       </c>
-      <c r="N32" s="13">
+      <c r="N32" s="8">
         <v>4</v>
       </c>
       <c r="O32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P32" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="17">
+      <c r="P32" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="12">
         <v>128</v>
       </c>
-      <c r="R32" s="13">
+      <c r="R32" s="8">
         <v>7</v>
       </c>
     </row>
@@ -2394,37 +2369,37 @@
       <c r="G33" s="1">
         <v>32</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H33" s="8">
         <v>5</v>
       </c>
       <c r="I33" s="1">
         <v>8</v>
       </c>
-      <c r="J33" s="13">
+      <c r="J33" s="8">
         <v>3</v>
       </c>
       <c r="K33" s="1">
         <v>4</v>
       </c>
-      <c r="L33" s="13">
+      <c r="L33" s="8">
         <v>2</v>
       </c>
       <c r="M33" s="1">
         <v>8</v>
       </c>
-      <c r="N33" s="13">
+      <c r="N33" s="8">
         <v>3</v>
       </c>
       <c r="O33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P33" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="17">
-        <v>8</v>
-      </c>
-      <c r="R33" s="13">
+      <c r="P33" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="12">
+        <v>8</v>
+      </c>
+      <c r="R33" s="8">
         <v>3</v>
       </c>
     </row>
@@ -2450,37 +2425,37 @@
       <c r="G34" s="1">
         <v>16</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H34" s="8">
         <v>4</v>
       </c>
       <c r="I34" s="1">
         <v>64</v>
       </c>
-      <c r="J34" s="13">
+      <c r="J34" s="8">
         <v>6</v>
       </c>
       <c r="K34" s="1">
         <v>16</v>
       </c>
-      <c r="L34" s="13">
+      <c r="L34" s="8">
         <v>4</v>
       </c>
       <c r="M34" s="1">
         <v>8</v>
       </c>
-      <c r="N34" s="13">
+      <c r="N34" s="8">
         <v>3</v>
       </c>
       <c r="O34" s="1">
         <v>4</v>
       </c>
-      <c r="P34" s="13">
-        <v>2</v>
-      </c>
-      <c r="Q34" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="R34" s="13">
+      <c r="P34" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q34" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="R34" s="8">
         <v>1</v>
       </c>
     </row>
@@ -2506,37 +2481,37 @@
       <c r="G35" s="1">
         <v>8</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H35" s="8">
         <v>3</v>
       </c>
       <c r="I35" s="1">
         <v>32</v>
       </c>
-      <c r="J35" s="13">
+      <c r="J35" s="8">
         <v>5</v>
       </c>
       <c r="K35" s="1">
         <v>128</v>
       </c>
-      <c r="L35" s="13">
+      <c r="L35" s="8">
         <v>7</v>
       </c>
       <c r="M35" s="5">
         <v>64</v>
       </c>
-      <c r="N35" s="13">
+      <c r="N35" s="8">
         <v>6</v>
       </c>
       <c r="O35" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P35" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="17">
-        <v>32</v>
-      </c>
-      <c r="R35" s="13">
+      <c r="P35" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="12">
+        <v>32</v>
+      </c>
+      <c r="R35" s="8">
         <v>5</v>
       </c>
     </row>
@@ -2562,37 +2537,37 @@
       <c r="G36" s="1">
         <v>4</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H36" s="8">
         <v>2</v>
       </c>
       <c r="I36" s="1">
         <v>4</v>
       </c>
-      <c r="J36" s="13">
+      <c r="J36" s="8">
         <v>2</v>
       </c>
       <c r="K36" s="1">
         <v>8</v>
       </c>
-      <c r="L36" s="13">
+      <c r="L36" s="8">
         <v>3</v>
       </c>
       <c r="M36" s="1">
         <v>16</v>
       </c>
-      <c r="N36" s="13">
+      <c r="N36" s="8">
         <v>4</v>
       </c>
       <c r="O36" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P36" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="17">
-        <v>32</v>
-      </c>
-      <c r="R36" s="13">
+      <c r="P36" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="12">
+        <v>32</v>
+      </c>
+      <c r="R36" s="8">
         <v>5</v>
       </c>
     </row>
@@ -2618,37 +2593,37 @@
       <c r="G37" s="1">
         <v>128</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H37" s="8">
         <v>7</v>
       </c>
       <c r="I37" s="1">
         <v>32</v>
       </c>
-      <c r="J37" s="13">
+      <c r="J37" s="8">
         <v>5</v>
       </c>
       <c r="K37" s="1">
         <v>32</v>
       </c>
-      <c r="L37" s="13">
+      <c r="L37" s="8">
         <v>5</v>
       </c>
       <c r="M37" s="1">
         <v>128</v>
       </c>
-      <c r="N37" s="13">
+      <c r="N37" s="8">
         <v>7</v>
       </c>
       <c r="O37" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P37" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="17">
-        <v>4</v>
-      </c>
-      <c r="R37" s="13">
+      <c r="P37" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="12">
+        <v>4</v>
+      </c>
+      <c r="R37" s="8">
         <v>2</v>
       </c>
     </row>
@@ -2674,37 +2649,37 @@
       <c r="G38" s="1">
         <v>32</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H38" s="8">
         <v>5</v>
       </c>
       <c r="I38" s="1">
         <v>32</v>
       </c>
-      <c r="J38" s="13">
+      <c r="J38" s="8">
         <v>5</v>
       </c>
       <c r="K38" s="1">
         <v>8</v>
       </c>
-      <c r="L38" s="13">
+      <c r="L38" s="8">
         <v>3</v>
       </c>
       <c r="M38" s="1">
         <v>8</v>
       </c>
-      <c r="N38" s="13">
+      <c r="N38" s="8">
         <v>3</v>
       </c>
       <c r="O38" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P38" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="R38" s="13">
+      <c r="P38" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="R38" s="8">
         <v>1</v>
       </c>
     </row>
@@ -2730,37 +2705,37 @@
       <c r="G39" s="1">
         <v>32</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H39" s="8">
         <v>5</v>
       </c>
       <c r="I39" s="1">
         <v>32</v>
       </c>
-      <c r="J39" s="13">
+      <c r="J39" s="8">
         <v>5</v>
       </c>
       <c r="K39" s="1">
         <v>8</v>
       </c>
-      <c r="L39" s="13">
+      <c r="L39" s="8">
         <v>3</v>
       </c>
       <c r="M39" s="5">
         <v>128</v>
       </c>
-      <c r="N39" s="13">
+      <c r="N39" s="8">
         <v>7</v>
       </c>
       <c r="O39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P39" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="17">
-        <v>16</v>
-      </c>
-      <c r="R39" s="12">
+      <c r="P39" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="12">
+        <v>16</v>
+      </c>
+      <c r="R39" s="7">
         <v>4</v>
       </c>
     </row>
@@ -2786,37 +2761,37 @@
       <c r="G40" s="1">
         <v>2</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H40" s="8">
         <v>1</v>
       </c>
       <c r="I40" s="1">
         <v>32</v>
       </c>
-      <c r="J40" s="13">
+      <c r="J40" s="8">
         <v>5</v>
       </c>
       <c r="K40" s="1">
         <v>4</v>
       </c>
-      <c r="L40" s="13">
+      <c r="L40" s="8">
         <v>2</v>
       </c>
       <c r="M40" s="1">
         <v>16</v>
       </c>
-      <c r="N40" s="13">
+      <c r="N40" s="8">
         <v>4</v>
       </c>
       <c r="O40" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P40" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="R40" s="12">
+      <c r="P40" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="R40" s="7">
         <v>1</v>
       </c>
     </row>
@@ -2842,37 +2817,37 @@
       <c r="G41" s="1">
         <v>2</v>
       </c>
-      <c r="H41" s="13">
+      <c r="H41" s="8">
         <v>1</v>
       </c>
       <c r="I41" s="1">
         <v>16</v>
       </c>
-      <c r="J41" s="13">
+      <c r="J41" s="8">
         <v>4</v>
       </c>
       <c r="K41" s="1">
         <v>4</v>
       </c>
-      <c r="L41" s="13">
+      <c r="L41" s="8">
         <v>2</v>
       </c>
       <c r="M41" s="1">
         <v>4</v>
       </c>
-      <c r="N41" s="13">
+      <c r="N41" s="8">
         <v>2</v>
       </c>
       <c r="O41" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P41" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="17">
-        <v>32</v>
-      </c>
-      <c r="R41" s="12">
+      <c r="P41" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="12">
+        <v>32</v>
+      </c>
+      <c r="R41" s="7">
         <v>5</v>
       </c>
     </row>
@@ -2898,37 +2873,37 @@
       <c r="G42" s="1">
         <v>256</v>
       </c>
-      <c r="H42" s="13">
+      <c r="H42" s="8">
         <v>8</v>
       </c>
       <c r="I42" s="1">
         <v>64</v>
       </c>
-      <c r="J42" s="13">
+      <c r="J42" s="8">
         <v>6</v>
       </c>
       <c r="K42" s="1">
         <v>16</v>
       </c>
-      <c r="L42" s="13">
+      <c r="L42" s="8">
         <v>4</v>
       </c>
       <c r="M42" s="1">
         <v>64</v>
       </c>
-      <c r="N42" s="13">
+      <c r="N42" s="8">
         <v>6</v>
       </c>
       <c r="O42" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P42" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q42" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="R42" s="12">
+      <c r="P42" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="R42" s="7">
         <v>1</v>
       </c>
     </row>
@@ -2954,37 +2929,37 @@
       <c r="G43" s="1">
         <v>256</v>
       </c>
-      <c r="H43" s="13">
+      <c r="H43" s="8">
         <v>8</v>
       </c>
       <c r="I43" s="1">
         <v>256</v>
       </c>
-      <c r="J43" s="13">
+      <c r="J43" s="8">
         <v>8</v>
       </c>
       <c r="K43" s="1">
         <v>32</v>
       </c>
-      <c r="L43" s="13">
+      <c r="L43" s="8">
         <v>5</v>
       </c>
       <c r="M43" s="1">
         <v>64</v>
       </c>
-      <c r="N43" s="13">
+      <c r="N43" s="8">
         <v>6</v>
       </c>
       <c r="O43" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P43" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q43" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="R43" s="12">
+      <c r="P43" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="R43" s="7">
         <v>1</v>
       </c>
     </row>
@@ -3010,35 +2985,35 @@
       <c r="G44" s="1">
         <v>8</v>
       </c>
-      <c r="H44" s="13">
+      <c r="H44" s="8">
         <v>3</v>
       </c>
       <c r="I44" s="1">
         <v>8</v>
       </c>
-      <c r="J44" s="13">
+      <c r="J44" s="8">
         <v>3</v>
       </c>
       <c r="K44" s="1">
         <v>16</v>
       </c>
-      <c r="L44" s="13">
+      <c r="L44" s="8">
         <v>4</v>
       </c>
       <c r="M44" s="5">
         <v>8</v>
       </c>
-      <c r="N44" s="13">
-        <v>3</v>
-      </c>
-      <c r="O44" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="P44" s="13"/>
-      <c r="Q44" s="17">
-        <v>16</v>
-      </c>
-      <c r="R44" s="16">
+      <c r="N44" s="8">
+        <v>3</v>
+      </c>
+      <c r="O44" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="12">
+        <v>16</v>
+      </c>
+      <c r="R44" s="11">
         <v>4</v>
       </c>
     </row>
@@ -3064,37 +3039,37 @@
       <c r="G45" s="1">
         <v>4</v>
       </c>
-      <c r="H45" s="13">
+      <c r="H45" s="8">
         <v>2</v>
       </c>
       <c r="I45" s="1">
         <v>32</v>
       </c>
-      <c r="J45" s="13">
+      <c r="J45" s="8">
         <v>5</v>
       </c>
       <c r="K45" s="1">
         <v>2</v>
       </c>
-      <c r="L45" s="13">
+      <c r="L45" s="8">
         <v>1</v>
       </c>
       <c r="M45" s="1">
         <v>16</v>
       </c>
-      <c r="N45" s="13">
+      <c r="N45" s="8">
         <v>4</v>
       </c>
       <c r="O45" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P45" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="17">
-        <v>8</v>
-      </c>
-      <c r="R45" s="12">
+      <c r="P45" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="12">
+        <v>8</v>
+      </c>
+      <c r="R45" s="7">
         <v>3</v>
       </c>
     </row>
@@ -3120,37 +3095,37 @@
       <c r="G46" s="1">
         <v>8</v>
       </c>
-      <c r="H46" s="13">
+      <c r="H46" s="8">
         <v>3</v>
       </c>
       <c r="I46" s="1">
         <v>128</v>
       </c>
-      <c r="J46" s="13">
+      <c r="J46" s="8">
         <v>7</v>
       </c>
       <c r="K46" s="1">
         <v>16</v>
       </c>
-      <c r="L46" s="13">
+      <c r="L46" s="8">
         <v>4</v>
       </c>
       <c r="M46" s="1">
         <v>32</v>
       </c>
-      <c r="N46" s="13">
+      <c r="N46" s="8">
         <v>5</v>
       </c>
       <c r="O46" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P46" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q46" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="R46" s="12">
+      <c r="P46" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="R46" s="7">
         <v>1</v>
       </c>
     </row>
@@ -3176,37 +3151,37 @@
       <c r="G47" s="1">
         <v>2</v>
       </c>
-      <c r="H47" s="13">
+      <c r="H47" s="8">
         <v>1</v>
       </c>
       <c r="I47" s="1">
         <v>16</v>
       </c>
-      <c r="J47" s="13">
+      <c r="J47" s="8">
         <v>4</v>
       </c>
       <c r="K47" s="1">
         <v>2</v>
       </c>
-      <c r="L47" s="13">
+      <c r="L47" s="8">
         <v>1</v>
       </c>
       <c r="M47" s="1">
         <v>4</v>
       </c>
-      <c r="N47" s="13">
+      <c r="N47" s="8">
         <v>2</v>
       </c>
       <c r="O47" s="1">
         <v>4</v>
       </c>
-      <c r="P47" s="13">
-        <v>2</v>
-      </c>
-      <c r="Q47" s="17">
-        <v>16</v>
-      </c>
-      <c r="R47" s="12">
+      <c r="P47" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q47" s="12">
+        <v>16</v>
+      </c>
+      <c r="R47" s="7">
         <v>4</v>
       </c>
     </row>
@@ -3232,37 +3207,37 @@
       <c r="G48" s="1">
         <v>64</v>
       </c>
-      <c r="H48" s="13">
+      <c r="H48" s="8">
         <v>6</v>
       </c>
       <c r="I48" s="1">
         <v>16</v>
       </c>
-      <c r="J48" s="13">
+      <c r="J48" s="8">
         <v>4</v>
       </c>
       <c r="K48" s="1">
         <v>8</v>
       </c>
-      <c r="L48" s="13">
+      <c r="L48" s="8">
         <v>3</v>
       </c>
       <c r="M48" s="1">
         <v>16</v>
       </c>
-      <c r="N48" s="13">
+      <c r="N48" s="8">
         <v>4</v>
       </c>
       <c r="O48" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P48" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q48" s="17">
-        <v>32</v>
-      </c>
-      <c r="R48" s="12">
+      <c r="P48" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="12">
+        <v>32</v>
+      </c>
+      <c r="R48" s="7">
         <v>5</v>
       </c>
     </row>
@@ -3288,37 +3263,37 @@
       <c r="G49" s="1">
         <v>4</v>
       </c>
-      <c r="H49" s="13">
+      <c r="H49" s="8">
         <v>2</v>
       </c>
       <c r="I49" s="1">
         <v>16</v>
       </c>
-      <c r="J49" s="13">
+      <c r="J49" s="8">
         <v>4</v>
       </c>
       <c r="K49" s="1">
         <v>8</v>
       </c>
-      <c r="L49" s="13">
+      <c r="L49" s="8">
         <v>3</v>
       </c>
       <c r="M49" s="1">
         <v>16</v>
       </c>
-      <c r="N49" s="13">
+      <c r="N49" s="8">
         <v>4</v>
       </c>
       <c r="O49" s="1">
         <v>8</v>
       </c>
-      <c r="P49" s="13">
-        <v>3</v>
-      </c>
-      <c r="Q49" s="17">
+      <c r="P49" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q49" s="12">
         <v>64</v>
       </c>
-      <c r="R49" s="12">
+      <c r="R49" s="7">
         <v>6</v>
       </c>
     </row>
@@ -3344,37 +3319,37 @@
       <c r="G50" s="1">
         <v>16</v>
       </c>
-      <c r="H50" s="13">
+      <c r="H50" s="8">
         <v>4</v>
       </c>
       <c r="I50" s="1">
         <v>16</v>
       </c>
-      <c r="J50" s="13">
+      <c r="J50" s="8">
         <v>4</v>
       </c>
       <c r="K50" s="1">
         <v>4</v>
       </c>
-      <c r="L50" s="13">
+      <c r="L50" s="8">
         <v>2</v>
       </c>
       <c r="M50" s="1">
         <v>16</v>
       </c>
-      <c r="N50" s="13">
+      <c r="N50" s="8">
         <v>4</v>
       </c>
       <c r="O50" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P50" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q50" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="R50" s="12">
+      <c r="P50" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="R50" s="7">
         <v>1</v>
       </c>
     </row>
@@ -3400,37 +3375,37 @@
       <c r="G51" s="1">
         <v>8</v>
       </c>
-      <c r="H51" s="13">
+      <c r="H51" s="8">
         <v>3</v>
       </c>
       <c r="I51" s="1">
         <v>8</v>
       </c>
-      <c r="J51" s="13">
+      <c r="J51" s="8">
         <v>3</v>
       </c>
       <c r="K51" s="1">
         <v>4</v>
       </c>
-      <c r="L51" s="13">
+      <c r="L51" s="8">
         <v>2</v>
       </c>
       <c r="M51" s="1">
         <v>8</v>
       </c>
-      <c r="N51" s="13">
+      <c r="N51" s="8">
         <v>3</v>
       </c>
       <c r="O51" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P51" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q51" s="17">
-        <v>32</v>
-      </c>
-      <c r="R51" s="12">
+      <c r="P51" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="12">
+        <v>32</v>
+      </c>
+      <c r="R51" s="7">
         <v>5</v>
       </c>
     </row>
@@ -3456,37 +3431,37 @@
       <c r="G52" s="1">
         <v>8</v>
       </c>
-      <c r="H52" s="13">
+      <c r="H52" s="8">
         <v>3</v>
       </c>
       <c r="I52" s="1">
         <v>128</v>
       </c>
-      <c r="J52" s="13">
+      <c r="J52" s="8">
         <v>7</v>
       </c>
       <c r="K52" s="1">
         <v>128</v>
       </c>
-      <c r="L52" s="13">
+      <c r="L52" s="8">
         <v>7</v>
       </c>
       <c r="M52" s="1">
         <v>32</v>
       </c>
-      <c r="N52" s="13">
+      <c r="N52" s="8">
         <v>5</v>
       </c>
       <c r="O52" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P52" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q52" s="17">
-        <v>16</v>
-      </c>
-      <c r="R52" s="12">
+      <c r="P52" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="12">
+        <v>16</v>
+      </c>
+      <c r="R52" s="7">
         <v>4</v>
       </c>
     </row>
@@ -3512,37 +3487,37 @@
       <c r="G53" s="1">
         <v>32</v>
       </c>
-      <c r="H53" s="13">
+      <c r="H53" s="8">
         <v>5</v>
       </c>
       <c r="I53" s="1">
         <v>16</v>
       </c>
-      <c r="J53" s="13">
+      <c r="J53" s="8">
         <v>4</v>
       </c>
       <c r="K53" s="1">
         <v>16</v>
       </c>
-      <c r="L53" s="13">
+      <c r="L53" s="8">
         <v>4</v>
       </c>
       <c r="M53" s="1">
         <v>32</v>
       </c>
-      <c r="N53" s="13">
+      <c r="N53" s="8">
         <v>5</v>
       </c>
       <c r="O53" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P53" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q53" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="R53" s="12">
+      <c r="P53" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="R53" s="7">
         <v>1</v>
       </c>
     </row>
@@ -3568,37 +3543,37 @@
       <c r="G54" s="1">
         <v>3</v>
       </c>
-      <c r="H54" s="13">
+      <c r="H54" s="8">
         <v>1.5</v>
       </c>
       <c r="I54" s="1">
         <v>8</v>
       </c>
-      <c r="J54" s="13">
+      <c r="J54" s="8">
         <v>3</v>
       </c>
       <c r="K54" s="1">
         <v>16</v>
       </c>
-      <c r="L54" s="13">
+      <c r="L54" s="8">
         <v>4</v>
       </c>
       <c r="M54" s="1">
         <v>16</v>
       </c>
-      <c r="N54" s="13">
+      <c r="N54" s="8">
         <v>4</v>
       </c>
       <c r="O54" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P54" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q54" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="R54" s="12">
+      <c r="P54" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R54" s="7">
         <v>8</v>
       </c>
     </row>
@@ -3624,37 +3599,37 @@
       <c r="G55" s="1">
         <v>4</v>
       </c>
-      <c r="H55" s="13">
+      <c r="H55" s="8">
         <v>2</v>
       </c>
       <c r="I55" s="1">
         <v>8</v>
       </c>
-      <c r="J55" s="13">
+      <c r="J55" s="8">
         <v>3</v>
       </c>
       <c r="K55" s="1">
         <v>8</v>
       </c>
-      <c r="L55" s="13">
+      <c r="L55" s="8">
         <v>3</v>
       </c>
       <c r="M55" s="1">
         <v>32</v>
       </c>
-      <c r="N55" s="13">
+      <c r="N55" s="8">
         <v>5</v>
       </c>
       <c r="O55" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P55" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q55" s="17">
-        <v>4</v>
-      </c>
-      <c r="R55" s="12">
+      <c r="P55" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="12">
+        <v>4</v>
+      </c>
+      <c r="R55" s="7">
         <v>2</v>
       </c>
     </row>
@@ -3680,37 +3655,37 @@
       <c r="G56" s="1">
         <v>2</v>
       </c>
-      <c r="H56" s="13">
+      <c r="H56" s="8">
         <v>1</v>
       </c>
       <c r="I56" s="1">
         <v>3</v>
       </c>
-      <c r="J56" s="13">
+      <c r="J56" s="8">
         <v>1.5</v>
       </c>
       <c r="K56" s="1">
         <v>3</v>
       </c>
-      <c r="L56" s="13">
+      <c r="L56" s="8">
         <v>1.5</v>
       </c>
       <c r="M56" s="1">
         <v>8</v>
       </c>
-      <c r="N56" s="13">
+      <c r="N56" s="8">
         <v>3</v>
       </c>
       <c r="O56" s="1">
         <v>4</v>
       </c>
-      <c r="P56" s="13">
-        <v>2</v>
-      </c>
-      <c r="Q56" s="17">
+      <c r="P56" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q56" s="12">
         <v>128</v>
       </c>
-      <c r="R56" s="12">
+      <c r="R56" s="7">
         <v>7</v>
       </c>
     </row>
@@ -3736,37 +3711,37 @@
       <c r="G57" s="1">
         <v>2</v>
       </c>
-      <c r="H57" s="13">
+      <c r="H57" s="8">
         <v>1</v>
       </c>
       <c r="I57" s="1">
         <v>8</v>
       </c>
-      <c r="J57" s="13">
+      <c r="J57" s="8">
         <v>3</v>
       </c>
       <c r="K57" s="1">
         <v>4</v>
       </c>
-      <c r="L57" s="13">
+      <c r="L57" s="8">
         <v>2</v>
       </c>
       <c r="M57" s="5">
         <v>16</v>
       </c>
-      <c r="N57" s="13">
+      <c r="N57" s="8">
         <v>4</v>
       </c>
       <c r="O57" s="1">
         <v>4</v>
       </c>
-      <c r="P57" s="13">
-        <v>2</v>
-      </c>
-      <c r="Q57" s="17">
-        <v>16</v>
-      </c>
-      <c r="R57" s="12">
+      <c r="P57" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q57" s="12">
+        <v>16</v>
+      </c>
+      <c r="R57" s="7">
         <v>4</v>
       </c>
     </row>
@@ -3792,37 +3767,37 @@
       <c r="G58" s="1">
         <v>2</v>
       </c>
-      <c r="H58" s="13">
+      <c r="H58" s="8">
         <v>1</v>
       </c>
       <c r="I58" s="1">
         <v>4</v>
       </c>
-      <c r="J58" s="13">
+      <c r="J58" s="8">
         <v>2</v>
       </c>
       <c r="K58" s="1">
         <v>3</v>
       </c>
-      <c r="L58" s="13">
+      <c r="L58" s="8">
         <v>1.5</v>
       </c>
       <c r="M58" s="1">
         <v>4</v>
       </c>
-      <c r="N58" s="13">
+      <c r="N58" s="8">
         <v>2</v>
       </c>
       <c r="O58" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P58" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q58" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="R58" s="12">
+      <c r="P58" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R58" s="7">
         <v>8</v>
       </c>
     </row>
@@ -3848,37 +3823,37 @@
       <c r="G59" s="1">
         <v>4</v>
       </c>
-      <c r="H59" s="13">
+      <c r="H59" s="8">
         <v>2</v>
       </c>
       <c r="I59" s="1">
         <v>4</v>
       </c>
-      <c r="J59" s="13">
+      <c r="J59" s="8">
         <v>2</v>
       </c>
       <c r="K59" s="1">
         <v>8</v>
       </c>
-      <c r="L59" s="13">
+      <c r="L59" s="8">
         <v>3</v>
       </c>
       <c r="M59" s="1">
         <v>32</v>
       </c>
-      <c r="N59" s="13">
+      <c r="N59" s="8">
         <v>5</v>
       </c>
       <c r="O59" s="1">
         <v>8</v>
       </c>
-      <c r="P59" s="13">
-        <v>3</v>
-      </c>
-      <c r="Q59" s="17">
+      <c r="P59" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="12">
         <v>128</v>
       </c>
-      <c r="R59" s="12">
+      <c r="R59" s="7">
         <v>7</v>
       </c>
     </row>
@@ -3904,37 +3879,37 @@
       <c r="G60" s="1">
         <v>4</v>
       </c>
-      <c r="H60" s="13">
+      <c r="H60" s="8">
         <v>2</v>
       </c>
       <c r="I60" s="1">
         <v>32</v>
       </c>
-      <c r="J60" s="13">
+      <c r="J60" s="8">
         <v>5</v>
       </c>
       <c r="K60" s="1">
         <v>2</v>
       </c>
-      <c r="L60" s="13">
+      <c r="L60" s="8">
         <v>1</v>
       </c>
       <c r="M60" s="1">
         <v>8</v>
       </c>
-      <c r="N60" s="13">
+      <c r="N60" s="8">
         <v>3</v>
       </c>
       <c r="O60" s="1">
         <v>4</v>
       </c>
-      <c r="P60" s="13">
-        <v>2</v>
-      </c>
-      <c r="Q60" s="17">
-        <v>8</v>
-      </c>
-      <c r="R60" s="12">
+      <c r="P60" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q60" s="12">
+        <v>8</v>
+      </c>
+      <c r="R60" s="7">
         <v>3</v>
       </c>
     </row>
@@ -3960,37 +3935,37 @@
       <c r="G61" s="1">
         <v>16</v>
       </c>
-      <c r="H61" s="13">
+      <c r="H61" s="8">
         <v>4</v>
       </c>
       <c r="I61" s="1">
         <v>4</v>
       </c>
-      <c r="J61" s="13">
+      <c r="J61" s="8">
         <v>2</v>
       </c>
       <c r="K61" s="1">
         <v>2</v>
       </c>
-      <c r="L61" s="13">
+      <c r="L61" s="8">
         <v>1</v>
       </c>
       <c r="M61" s="1">
         <v>8</v>
       </c>
-      <c r="N61" s="13">
+      <c r="N61" s="8">
         <v>3</v>
       </c>
       <c r="O61" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P61" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q61" s="17">
-        <v>8</v>
-      </c>
-      <c r="R61" s="12">
+      <c r="P61" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="12">
+        <v>8</v>
+      </c>
+      <c r="R61" s="7">
         <v>3</v>
       </c>
     </row>
@@ -4016,37 +3991,37 @@
       <c r="G62" s="1">
         <v>16</v>
       </c>
-      <c r="H62" s="13">
+      <c r="H62" s="8">
         <v>4</v>
       </c>
       <c r="I62" s="1">
         <v>64</v>
       </c>
-      <c r="J62" s="13">
+      <c r="J62" s="8">
         <v>6</v>
       </c>
       <c r="K62" s="1">
         <v>16</v>
       </c>
-      <c r="L62" s="13">
+      <c r="L62" s="8">
         <v>4</v>
       </c>
       <c r="M62" s="1">
         <v>256</v>
       </c>
-      <c r="N62" s="13">
+      <c r="N62" s="8">
         <v>8</v>
       </c>
       <c r="O62" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P62" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q62" s="17">
-        <v>8</v>
-      </c>
-      <c r="R62" s="12">
+      <c r="P62" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="12">
+        <v>8</v>
+      </c>
+      <c r="R62" s="7">
         <v>3</v>
       </c>
     </row>
@@ -4072,37 +4047,37 @@
       <c r="G63" s="4">
         <v>2</v>
       </c>
-      <c r="H63" s="12">
+      <c r="H63" s="7">
         <v>1</v>
       </c>
       <c r="I63" s="1">
         <v>128</v>
       </c>
-      <c r="J63" s="13">
+      <c r="J63" s="8">
         <v>7</v>
       </c>
       <c r="K63" s="1">
         <v>8</v>
       </c>
-      <c r="L63" s="13">
+      <c r="L63" s="8">
         <v>3</v>
       </c>
       <c r="M63" s="1">
         <v>8</v>
       </c>
-      <c r="N63" s="13">
+      <c r="N63" s="8">
         <v>3</v>
       </c>
       <c r="O63" s="1">
         <v>8</v>
       </c>
-      <c r="P63" s="13">
-        <v>3</v>
-      </c>
-      <c r="Q63" s="17">
-        <v>32</v>
-      </c>
-      <c r="R63" s="12">
+      <c r="P63" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q63" s="12">
+        <v>32</v>
+      </c>
+      <c r="R63" s="7">
         <v>5</v>
       </c>
     </row>
@@ -4128,37 +4103,37 @@
       <c r="G64" s="1">
         <v>8</v>
       </c>
-      <c r="H64" s="13">
+      <c r="H64" s="8">
         <v>3</v>
       </c>
       <c r="I64" s="1">
         <v>32</v>
       </c>
-      <c r="J64" s="13">
+      <c r="J64" s="8">
         <v>5</v>
       </c>
       <c r="K64" s="1">
         <v>16</v>
       </c>
-      <c r="L64" s="13">
+      <c r="L64" s="8">
         <v>4</v>
       </c>
       <c r="M64" s="1">
         <v>32</v>
       </c>
-      <c r="N64" s="13">
+      <c r="N64" s="8">
         <v>5</v>
       </c>
       <c r="O64" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P64" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q64" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="R64" s="12">
+      <c r="P64" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="R64" s="7">
         <v>1</v>
       </c>
     </row>
@@ -4184,37 +4159,37 @@
       <c r="G65" s="1">
         <v>32</v>
       </c>
-      <c r="H65" s="13">
+      <c r="H65" s="8">
         <v>5</v>
       </c>
       <c r="I65" s="1">
         <v>8</v>
       </c>
-      <c r="J65" s="13">
+      <c r="J65" s="8">
         <v>3</v>
       </c>
       <c r="K65" s="1">
         <v>8</v>
       </c>
-      <c r="L65" s="13">
+      <c r="L65" s="8">
         <v>3</v>
       </c>
       <c r="M65" s="1">
         <v>16</v>
       </c>
-      <c r="N65" s="13">
+      <c r="N65" s="8">
         <v>4</v>
       </c>
       <c r="O65" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P65" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q65" s="17">
-        <v>16</v>
-      </c>
-      <c r="R65" s="12">
+      <c r="P65" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="12">
+        <v>16</v>
+      </c>
+      <c r="R65" s="7">
         <v>4</v>
       </c>
     </row>
@@ -4240,37 +4215,37 @@
       <c r="G66" s="1">
         <v>32</v>
       </c>
-      <c r="H66" s="13">
+      <c r="H66" s="8">
         <v>5</v>
       </c>
       <c r="I66" s="1">
         <v>16</v>
       </c>
-      <c r="J66" s="13">
+      <c r="J66" s="8">
         <v>4</v>
       </c>
       <c r="K66" s="1">
         <v>4</v>
       </c>
-      <c r="L66" s="13">
+      <c r="L66" s="8">
         <v>2</v>
       </c>
       <c r="M66" s="1">
         <v>16</v>
       </c>
-      <c r="N66" s="13">
+      <c r="N66" s="8">
         <v>4</v>
       </c>
       <c r="O66" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P66" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q66" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="R66" s="12">
+      <c r="P66" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="R66" s="7">
         <v>1</v>
       </c>
     </row>
@@ -4296,35 +4271,35 @@
       <c r="G67" s="1">
         <v>256</v>
       </c>
-      <c r="H67" s="13">
+      <c r="H67" s="8">
         <v>8</v>
       </c>
       <c r="I67" s="1">
         <v>32</v>
       </c>
-      <c r="J67" s="13">
+      <c r="J67" s="8">
         <v>5</v>
       </c>
       <c r="K67" s="1">
         <v>128</v>
       </c>
-      <c r="L67" s="13">
+      <c r="L67" s="8">
         <v>7</v>
       </c>
       <c r="M67" s="1">
         <v>256</v>
       </c>
-      <c r="N67" s="13">
+      <c r="N67" s="8">
         <v>8</v>
       </c>
       <c r="O67" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P67" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q67" s="17"/>
-      <c r="R67" s="12"/>
+      <c r="P67" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q67" s="12"/>
+      <c r="R67" s="7"/>
     </row>
     <row r="68" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
@@ -4348,37 +4323,37 @@
       <c r="G68" s="1">
         <v>8</v>
       </c>
-      <c r="H68" s="13">
+      <c r="H68" s="8">
         <v>3</v>
       </c>
       <c r="I68" s="1">
         <v>4</v>
       </c>
-      <c r="J68" s="13">
+      <c r="J68" s="8">
         <v>2</v>
       </c>
       <c r="K68" s="1">
         <v>8</v>
       </c>
-      <c r="L68" s="13">
+      <c r="L68" s="8">
         <v>3</v>
       </c>
       <c r="M68" s="1">
         <v>32</v>
       </c>
-      <c r="N68" s="13">
+      <c r="N68" s="8">
         <v>5</v>
       </c>
       <c r="O68" s="1">
         <v>4</v>
       </c>
-      <c r="P68" s="13">
-        <v>2</v>
-      </c>
-      <c r="Q68" s="17">
+      <c r="P68" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q68" s="12">
         <v>64</v>
       </c>
-      <c r="R68" s="12">
+      <c r="R68" s="7">
         <v>6</v>
       </c>
     </row>
@@ -4404,37 +4379,37 @@
       <c r="G69" s="1">
         <v>16</v>
       </c>
-      <c r="H69" s="13">
+      <c r="H69" s="8">
         <v>4</v>
       </c>
       <c r="I69" s="1">
         <v>3</v>
       </c>
-      <c r="J69" s="13">
+      <c r="J69" s="8">
         <v>1.5</v>
       </c>
       <c r="K69" s="1">
         <v>8</v>
       </c>
-      <c r="L69" s="13">
+      <c r="L69" s="8">
         <v>3</v>
       </c>
       <c r="M69" s="5">
         <v>32</v>
       </c>
-      <c r="N69" s="13">
+      <c r="N69" s="8">
         <v>5</v>
       </c>
       <c r="O69" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P69" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q69" s="17">
-        <v>4</v>
-      </c>
-      <c r="R69" s="12">
+      <c r="P69" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q69" s="12">
+        <v>4</v>
+      </c>
+      <c r="R69" s="7">
         <v>2</v>
       </c>
     </row>
@@ -4460,37 +4435,37 @@
       <c r="G70" s="1">
         <v>128</v>
       </c>
-      <c r="H70" s="13">
+      <c r="H70" s="8">
         <v>7</v>
       </c>
       <c r="I70" s="1">
         <v>64</v>
       </c>
-      <c r="J70" s="13">
+      <c r="J70" s="8">
         <v>6</v>
       </c>
       <c r="K70" s="1">
         <v>16</v>
       </c>
-      <c r="L70" s="13">
+      <c r="L70" s="8">
         <v>4</v>
       </c>
       <c r="M70" s="1">
         <v>128</v>
       </c>
-      <c r="N70" s="13">
+      <c r="N70" s="8">
         <v>7</v>
       </c>
       <c r="O70" s="1">
         <v>16</v>
       </c>
-      <c r="P70" s="13">
-        <v>4</v>
-      </c>
-      <c r="Q70" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="R70" s="12">
+      <c r="P70" s="8">
+        <v>4</v>
+      </c>
+      <c r="Q70" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R70" s="7">
         <v>8</v>
       </c>
     </row>
@@ -4516,37 +4491,37 @@
       <c r="G71" s="1">
         <v>8</v>
       </c>
-      <c r="H71" s="13">
+      <c r="H71" s="8">
         <v>3</v>
       </c>
       <c r="I71" s="1">
         <v>16</v>
       </c>
-      <c r="J71" s="13">
+      <c r="J71" s="8">
         <v>4</v>
       </c>
       <c r="K71" s="1">
         <v>8</v>
       </c>
-      <c r="L71" s="13">
+      <c r="L71" s="8">
         <v>3</v>
       </c>
       <c r="M71" s="1">
         <v>32</v>
       </c>
-      <c r="N71" s="13">
+      <c r="N71" s="8">
         <v>5</v>
       </c>
       <c r="O71" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P71" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q71" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="R71" s="12">
+      <c r="P71" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q71" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="R71" s="7">
         <v>1</v>
       </c>
     </row>
@@ -4572,37 +4547,37 @@
       <c r="G72" s="1">
         <v>64</v>
       </c>
-      <c r="H72" s="13">
+      <c r="H72" s="8">
         <v>6</v>
       </c>
       <c r="I72" s="1">
         <v>128</v>
       </c>
-      <c r="J72" s="13">
+      <c r="J72" s="8">
         <v>7</v>
       </c>
       <c r="K72" s="1">
         <v>64</v>
       </c>
-      <c r="L72" s="13">
+      <c r="L72" s="8">
         <v>6</v>
       </c>
       <c r="M72" s="1">
         <v>128</v>
       </c>
-      <c r="N72" s="13">
+      <c r="N72" s="8">
         <v>7</v>
       </c>
       <c r="O72" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P72" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q72" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="R72" s="12">
+      <c r="P72" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="R72" s="7">
         <v>1</v>
       </c>
     </row>
@@ -4628,37 +4603,37 @@
       <c r="G73" s="1">
         <v>16</v>
       </c>
-      <c r="H73" s="13">
+      <c r="H73" s="8">
         <v>4</v>
       </c>
       <c r="I73" s="1">
         <v>8</v>
       </c>
-      <c r="J73" s="13">
+      <c r="J73" s="8">
         <v>3</v>
       </c>
       <c r="K73" s="1">
         <v>2</v>
       </c>
-      <c r="L73" s="13">
+      <c r="L73" s="8">
         <v>1</v>
       </c>
       <c r="M73" s="1">
         <v>32</v>
       </c>
-      <c r="N73" s="13">
+      <c r="N73" s="8">
         <v>5</v>
       </c>
       <c r="O73" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P73" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q73" s="17">
-        <v>4</v>
-      </c>
-      <c r="R73" s="12">
+      <c r="P73" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q73" s="12">
+        <v>4</v>
+      </c>
+      <c r="R73" s="7">
         <v>2</v>
       </c>
     </row>
@@ -4684,37 +4659,37 @@
       <c r="G74" s="1">
         <v>3</v>
       </c>
-      <c r="H74" s="13">
+      <c r="H74" s="8">
         <v>1.5</v>
       </c>
       <c r="I74" s="1">
         <v>8</v>
       </c>
-      <c r="J74" s="13">
+      <c r="J74" s="8">
         <v>3</v>
       </c>
       <c r="K74" s="1">
         <v>128</v>
       </c>
-      <c r="L74" s="13">
+      <c r="L74" s="8">
         <v>7</v>
       </c>
       <c r="M74" s="1">
         <v>8</v>
       </c>
-      <c r="N74" s="13">
+      <c r="N74" s="8">
         <v>3</v>
       </c>
       <c r="O74" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P74" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q74" s="17">
-        <v>8</v>
-      </c>
-      <c r="R74" s="12">
+      <c r="P74" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q74" s="12">
+        <v>8</v>
+      </c>
+      <c r="R74" s="7">
         <v>3</v>
       </c>
     </row>
@@ -4740,37 +4715,37 @@
       <c r="G75" s="4">
         <v>2</v>
       </c>
-      <c r="H75" s="12">
+      <c r="H75" s="7">
         <v>1</v>
       </c>
       <c r="I75" s="1">
         <v>3</v>
       </c>
-      <c r="J75" s="13">
+      <c r="J75" s="8">
         <v>1.5</v>
       </c>
       <c r="K75" s="1">
         <v>2</v>
       </c>
-      <c r="L75" s="13">
+      <c r="L75" s="8">
         <v>1</v>
       </c>
       <c r="M75" s="1">
         <v>3</v>
       </c>
-      <c r="N75" s="13">
+      <c r="N75" s="8">
         <v>1.5</v>
       </c>
       <c r="O75" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P75" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q75" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="R75" s="12">
+      <c r="P75" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q75" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="R75" s="7">
         <v>1</v>
       </c>
     </row>
@@ -4796,37 +4771,37 @@
       <c r="G76" s="1">
         <v>3</v>
       </c>
-      <c r="H76" s="13">
+      <c r="H76" s="8">
         <v>1.5</v>
       </c>
       <c r="I76" s="1">
         <v>32</v>
       </c>
-      <c r="J76" s="13">
+      <c r="J76" s="8">
         <v>5</v>
       </c>
       <c r="K76" s="1">
         <v>4</v>
       </c>
-      <c r="L76" s="13">
+      <c r="L76" s="8">
         <v>2</v>
       </c>
       <c r="M76" s="5">
         <v>128</v>
       </c>
-      <c r="N76" s="13">
+      <c r="N76" s="8">
         <v>7</v>
       </c>
       <c r="O76" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P76" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q76" s="17">
-        <v>32</v>
-      </c>
-      <c r="R76" s="12">
+      <c r="P76" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q76" s="12">
+        <v>32</v>
+      </c>
+      <c r="R76" s="7">
         <v>5</v>
       </c>
     </row>
@@ -4837,18 +4812,18 @@
       <c r="D77" s="1"/>
       <c r="E77" s="2"/>
       <c r="F77" s="1"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="11"/>
-      <c r="I77" s="11"/>
-      <c r="J77" s="11"/>
-      <c r="K77" s="11"/>
-      <c r="L77" s="11"/>
-      <c r="M77" s="11"/>
-      <c r="N77" s="11"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6"/>
+      <c r="N77" s="6"/>
       <c r="O77" s="1"/>
-      <c r="P77" s="11"/>
-      <c r="Q77" s="19"/>
-      <c r="R77" s="11"/>
+      <c r="P77" s="6"/>
+      <c r="Q77" s="14"/>
+      <c r="R77" s="6"/>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
@@ -4910,1598 +4885,6 @@
       <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A160" s="1">
-        <v>3287</v>
-      </c>
-      <c r="B160" s="3">
-        <v>113</v>
-      </c>
-      <c r="C160" s="1">
-        <v>3</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E160" s="2">
-        <v>41387</v>
-      </c>
-      <c r="F160" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G160" s="1">
-        <v>3</v>
-      </c>
-      <c r="H160" s="1"/>
-      <c r="I160" s="1"/>
-      <c r="J160" s="1"/>
-      <c r="K160" s="1"/>
-      <c r="L160" s="1"/>
-      <c r="M160" s="1"/>
-      <c r="N160" s="1"/>
-      <c r="O160" s="1"/>
-      <c r="P160" s="1"/>
-      <c r="Q160" s="4"/>
-      <c r="R160" s="4"/>
-    </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A161" s="1">
-        <v>3288</v>
-      </c>
-      <c r="B161" s="3">
-        <v>255</v>
-      </c>
-      <c r="C161" s="1">
-        <v>3</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E161" s="2">
-        <v>41387</v>
-      </c>
-      <c r="F161" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G161" s="1">
-        <v>32</v>
-      </c>
-      <c r="H161" s="1"/>
-      <c r="I161" s="1"/>
-      <c r="J161" s="1"/>
-      <c r="K161" s="1"/>
-      <c r="L161" s="1"/>
-      <c r="M161" s="1"/>
-      <c r="N161" s="1"/>
-      <c r="O161" s="1"/>
-      <c r="P161" s="1"/>
-      <c r="Q161" s="4"/>
-      <c r="R161" s="4"/>
-    </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A162" s="1">
-        <v>3298</v>
-      </c>
-      <c r="B162" s="3">
-        <v>1089</v>
-      </c>
-      <c r="C162" s="1">
-        <v>2</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E162" s="2">
-        <v>41388</v>
-      </c>
-      <c r="F162" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G162" s="1">
-        <v>32</v>
-      </c>
-      <c r="H162" s="1"/>
-      <c r="I162" s="1"/>
-      <c r="J162" s="1"/>
-      <c r="K162" s="1"/>
-      <c r="L162" s="1"/>
-      <c r="M162" s="1"/>
-      <c r="N162" s="1"/>
-      <c r="O162" s="1"/>
-      <c r="P162" s="1"/>
-      <c r="Q162" s="1"/>
-      <c r="R162" s="1"/>
-    </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A163" s="1">
-        <v>3300</v>
-      </c>
-      <c r="B163" s="3">
-        <v>9105</v>
-      </c>
-      <c r="C163" s="1">
-        <v>4</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E163" s="2">
-        <v>41388</v>
-      </c>
-      <c r="F163" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G163" s="1">
-        <v>16</v>
-      </c>
-      <c r="H163" s="1"/>
-      <c r="I163" s="1"/>
-      <c r="J163" s="1"/>
-      <c r="K163" s="1"/>
-      <c r="L163" s="1"/>
-      <c r="M163" s="1"/>
-      <c r="N163" s="1"/>
-      <c r="O163" s="1"/>
-      <c r="P163" s="1"/>
-      <c r="Q163" s="1"/>
-      <c r="R163" s="1"/>
-    </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A164" s="1">
-        <v>3302</v>
-      </c>
-      <c r="B164" s="3">
-        <v>198</v>
-      </c>
-      <c r="C164" s="1">
-        <v>3</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E164" s="2">
-        <v>41388</v>
-      </c>
-      <c r="F164" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G164" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H164" s="1"/>
-      <c r="I164" s="1"/>
-      <c r="J164" s="1"/>
-      <c r="K164" s="1"/>
-      <c r="L164" s="1"/>
-      <c r="M164" s="1"/>
-      <c r="N164" s="1"/>
-      <c r="O164" s="1"/>
-      <c r="P164" s="1"/>
-      <c r="Q164" s="1"/>
-      <c r="R164" s="1"/>
-    </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A165" s="1">
-        <v>3307</v>
-      </c>
-      <c r="B165" s="3">
-        <v>9114</v>
-      </c>
-      <c r="C165" s="1">
-        <v>4</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E165" s="2">
-        <v>41389</v>
-      </c>
-      <c r="F165" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G165" s="1">
-        <v>32</v>
-      </c>
-      <c r="H165" s="1"/>
-      <c r="I165" s="1"/>
-      <c r="J165" s="1"/>
-      <c r="K165" s="1"/>
-      <c r="L165" s="1"/>
-      <c r="M165" s="1"/>
-      <c r="N165" s="1"/>
-      <c r="O165" s="1"/>
-      <c r="P165" s="1"/>
-      <c r="Q165" s="1"/>
-      <c r="R165" s="1"/>
-    </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A166" s="1">
-        <v>3313</v>
-      </c>
-      <c r="B166" s="3">
-        <v>1323</v>
-      </c>
-      <c r="C166" s="1">
-        <v>2</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E166" s="2">
-        <v>41390</v>
-      </c>
-      <c r="F166" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G166" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H166" s="1"/>
-      <c r="I166" s="1"/>
-      <c r="J166" s="1"/>
-      <c r="K166" s="1"/>
-      <c r="L166" s="1"/>
-      <c r="M166" s="1"/>
-      <c r="N166" s="1"/>
-      <c r="O166" s="1"/>
-      <c r="P166" s="1"/>
-      <c r="Q166" s="1"/>
-      <c r="R166" s="1"/>
-    </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A167" s="1">
-        <v>3315</v>
-      </c>
-      <c r="B167" s="3">
-        <v>9199</v>
-      </c>
-      <c r="C167" s="1">
-        <v>4</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E167" s="2">
-        <v>41390</v>
-      </c>
-      <c r="F167" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G167" s="1">
-        <v>8</v>
-      </c>
-      <c r="H167" s="1"/>
-      <c r="I167" s="1"/>
-      <c r="J167" s="1"/>
-      <c r="K167" s="1"/>
-      <c r="L167" s="1"/>
-      <c r="M167" s="1"/>
-      <c r="N167" s="1"/>
-      <c r="O167" s="1"/>
-      <c r="P167" s="1"/>
-      <c r="Q167" s="1"/>
-      <c r="R167" s="1"/>
-    </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A168" s="1">
-        <v>3317</v>
-      </c>
-      <c r="B168" s="3">
-        <v>9082</v>
-      </c>
-      <c r="C168" s="1">
-        <v>4</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E168" s="2">
-        <v>41390</v>
-      </c>
-      <c r="F168" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G168" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H168" s="1"/>
-      <c r="I168" s="1"/>
-      <c r="J168" s="1"/>
-      <c r="K168" s="1"/>
-      <c r="L168" s="1"/>
-      <c r="M168" s="1"/>
-      <c r="N168" s="1"/>
-      <c r="O168" s="1"/>
-      <c r="P168" s="1"/>
-      <c r="Q168" s="1"/>
-      <c r="R168" s="1"/>
-    </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A169" s="1">
-        <v>3318</v>
-      </c>
-      <c r="B169" s="3">
-        <v>9260</v>
-      </c>
-      <c r="C169" s="1">
-        <v>4</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E169" s="2">
-        <v>41390</v>
-      </c>
-      <c r="F169" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G169" s="1">
-        <v>128</v>
-      </c>
-      <c r="H169" s="1"/>
-      <c r="I169" s="1"/>
-      <c r="J169" s="1"/>
-      <c r="K169" s="1"/>
-      <c r="L169" s="1"/>
-      <c r="M169" s="1"/>
-      <c r="N169" s="1"/>
-      <c r="O169" s="1"/>
-      <c r="P169" s="1"/>
-      <c r="Q169" s="1"/>
-      <c r="R169" s="1"/>
-    </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A170" s="1">
-        <v>3321</v>
-      </c>
-      <c r="B170" s="3">
-        <v>9189</v>
-      </c>
-      <c r="C170" s="1">
-        <v>4</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E170" s="2">
-        <v>41391</v>
-      </c>
-      <c r="F170" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G170" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H170" s="1"/>
-      <c r="I170" s="1"/>
-      <c r="J170" s="1"/>
-      <c r="K170" s="1"/>
-      <c r="L170" s="1"/>
-      <c r="M170" s="1"/>
-      <c r="N170" s="1"/>
-      <c r="O170" s="1"/>
-      <c r="P170" s="1"/>
-      <c r="Q170" s="1"/>
-      <c r="R170" s="1"/>
-    </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A171" s="1">
-        <v>3323</v>
-      </c>
-      <c r="B171" s="3">
-        <v>9074</v>
-      </c>
-      <c r="C171" s="1">
-        <v>4</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E171" s="2">
-        <v>41391</v>
-      </c>
-      <c r="F171" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G171" s="1">
-        <v>64</v>
-      </c>
-      <c r="H171" s="1"/>
-      <c r="I171" s="1"/>
-      <c r="J171" s="1"/>
-      <c r="K171" s="1"/>
-      <c r="L171" s="1"/>
-      <c r="M171" s="1"/>
-      <c r="N171" s="1"/>
-      <c r="O171" s="1"/>
-      <c r="P171" s="1"/>
-      <c r="Q171" s="1"/>
-      <c r="R171" s="1"/>
-    </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A172" s="1">
-        <v>3327</v>
-      </c>
-      <c r="B172" s="3">
-        <v>9296</v>
-      </c>
-      <c r="C172" s="1">
-        <v>4</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E172" s="2">
-        <v>41392</v>
-      </c>
-      <c r="F172" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G172" s="1">
-        <v>16</v>
-      </c>
-      <c r="H172" s="1"/>
-      <c r="I172" s="1"/>
-      <c r="J172" s="1"/>
-      <c r="K172" s="1"/>
-      <c r="L172" s="1"/>
-      <c r="M172" s="1"/>
-      <c r="N172" s="1"/>
-      <c r="O172" s="1"/>
-      <c r="P172" s="1"/>
-      <c r="Q172" s="1"/>
-      <c r="R172" s="1"/>
-    </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A173" s="1">
-        <v>3328</v>
-      </c>
-      <c r="B173" s="3">
-        <v>150</v>
-      </c>
-      <c r="C173" s="1">
-        <v>3</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E173" s="2">
-        <v>41392</v>
-      </c>
-      <c r="F173" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G173" s="1">
-        <v>32</v>
-      </c>
-      <c r="H173" s="1"/>
-      <c r="I173" s="1"/>
-      <c r="J173" s="1"/>
-      <c r="K173" s="1"/>
-      <c r="L173" s="1"/>
-      <c r="M173" s="1"/>
-      <c r="N173" s="1"/>
-      <c r="O173" s="1"/>
-      <c r="P173" s="1"/>
-      <c r="Q173" s="1"/>
-      <c r="R173" s="1"/>
-    </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A174" s="1">
-        <v>3329</v>
-      </c>
-      <c r="B174" s="3">
-        <v>112</v>
-      </c>
-      <c r="C174" s="1">
-        <v>3</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E174" s="2">
-        <v>41392</v>
-      </c>
-      <c r="F174" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G174" s="1">
-        <v>3</v>
-      </c>
-      <c r="H174" s="1"/>
-      <c r="I174" s="1"/>
-      <c r="J174" s="1"/>
-      <c r="K174" s="1"/>
-      <c r="L174" s="1"/>
-      <c r="M174" s="1"/>
-      <c r="N174" s="1"/>
-      <c r="O174" s="1"/>
-      <c r="P174" s="1"/>
-    </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A175" s="1">
-        <v>3331</v>
-      </c>
-      <c r="B175" s="3">
-        <v>9134</v>
-      </c>
-      <c r="C175" s="1">
-        <v>4</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E175" s="2">
-        <v>41392</v>
-      </c>
-      <c r="F175" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G175" s="1">
-        <v>8</v>
-      </c>
-      <c r="H175" s="1"/>
-      <c r="I175" s="1"/>
-      <c r="J175" s="1"/>
-      <c r="K175" s="1"/>
-      <c r="L175" s="1"/>
-      <c r="M175" s="1"/>
-      <c r="N175" s="1"/>
-      <c r="O175" s="1"/>
-      <c r="P175" s="1"/>
-    </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A176" s="1">
-        <v>3336</v>
-      </c>
-      <c r="B176" s="3">
-        <v>9118</v>
-      </c>
-      <c r="C176" s="1">
-        <v>4</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E176" s="2">
-        <v>41393</v>
-      </c>
-      <c r="F176" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G176" s="1">
-        <v>128</v>
-      </c>
-      <c r="H176" s="1"/>
-      <c r="I176" s="1"/>
-      <c r="J176" s="1"/>
-      <c r="K176" s="1"/>
-      <c r="L176" s="1"/>
-      <c r="M176" s="1"/>
-      <c r="N176" s="1"/>
-      <c r="O176" s="1"/>
-      <c r="P176" s="1"/>
-    </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A177" s="1">
-        <v>3340</v>
-      </c>
-      <c r="B177" s="3">
-        <v>1057</v>
-      </c>
-      <c r="C177" s="1">
-        <v>2</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E177" s="2">
-        <v>41393</v>
-      </c>
-      <c r="F177" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G177" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H177" s="1"/>
-      <c r="I177" s="1"/>
-      <c r="J177" s="1"/>
-      <c r="K177" s="1"/>
-      <c r="L177" s="1"/>
-      <c r="M177" s="1"/>
-      <c r="N177" s="1"/>
-      <c r="O177" s="1"/>
-      <c r="P177" s="1"/>
-    </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A178" s="1">
-        <v>3341</v>
-      </c>
-      <c r="B178" s="3">
-        <v>250</v>
-      </c>
-      <c r="C178" s="1">
-        <v>3</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E178" s="2">
-        <v>41393</v>
-      </c>
-      <c r="F178" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G178" s="1">
-        <v>4</v>
-      </c>
-      <c r="H178" s="1"/>
-      <c r="I178" s="1"/>
-      <c r="J178" s="1"/>
-      <c r="K178" s="1"/>
-      <c r="L178" s="1"/>
-      <c r="M178" s="1"/>
-      <c r="N178" s="1"/>
-      <c r="O178" s="1"/>
-      <c r="P178" s="1"/>
-    </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A179" s="1">
-        <v>3342</v>
-      </c>
-      <c r="B179" s="3">
-        <v>9313</v>
-      </c>
-      <c r="C179" s="1">
-        <v>4</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E179" s="2">
-        <v>41393</v>
-      </c>
-      <c r="F179" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G179" s="1">
-        <v>8</v>
-      </c>
-      <c r="H179" s="1"/>
-      <c r="I179" s="1"/>
-      <c r="J179" s="1"/>
-      <c r="K179" s="1"/>
-      <c r="L179" s="1"/>
-      <c r="M179" s="1"/>
-      <c r="N179" s="1"/>
-      <c r="O179" s="1"/>
-      <c r="P179" s="1"/>
-    </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A180" s="1">
-        <v>3345</v>
-      </c>
-      <c r="B180" s="3">
-        <v>267</v>
-      </c>
-      <c r="C180" s="1">
-        <v>3</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E180" s="2">
-        <v>41394</v>
-      </c>
-      <c r="F180" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G180" s="1">
-        <v>16</v>
-      </c>
-      <c r="H180" s="1"/>
-      <c r="I180" s="1"/>
-      <c r="J180" s="1"/>
-      <c r="K180" s="1"/>
-      <c r="L180" s="1"/>
-      <c r="M180" s="1"/>
-      <c r="N180" s="1"/>
-      <c r="O180" s="1"/>
-      <c r="P180" s="1"/>
-    </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A181" s="1">
-        <v>3346</v>
-      </c>
-      <c r="B181" s="3">
-        <v>194</v>
-      </c>
-      <c r="C181" s="1">
-        <v>3</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E181" s="2">
-        <v>41394</v>
-      </c>
-      <c r="F181" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G181" s="1">
-        <v>8</v>
-      </c>
-      <c r="H181" s="1"/>
-      <c r="I181" s="1"/>
-      <c r="J181" s="1"/>
-      <c r="K181" s="1"/>
-      <c r="L181" s="1"/>
-      <c r="M181" s="1"/>
-      <c r="N181" s="1"/>
-      <c r="O181" s="1"/>
-      <c r="P181" s="1"/>
-    </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A182" s="1">
-        <v>3350</v>
-      </c>
-      <c r="B182" s="3">
-        <v>9355</v>
-      </c>
-      <c r="C182" s="1">
-        <v>4</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E182" s="2">
-        <v>41394</v>
-      </c>
-      <c r="F182" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G182" s="1">
-        <v>4</v>
-      </c>
-      <c r="H182" s="1"/>
-      <c r="I182" s="1"/>
-      <c r="J182" s="1"/>
-      <c r="K182" s="1"/>
-      <c r="L182" s="1"/>
-      <c r="M182" s="1"/>
-      <c r="N182" s="1"/>
-      <c r="O182" s="1"/>
-      <c r="P182" s="1"/>
-    </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A183" s="1">
-        <v>3351</v>
-      </c>
-      <c r="B183" s="3">
-        <v>304</v>
-      </c>
-      <c r="C183" s="1">
-        <v>3</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E183" s="2">
-        <v>41395</v>
-      </c>
-      <c r="F183" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G183" s="1">
-        <v>32</v>
-      </c>
-      <c r="H183" s="1"/>
-      <c r="I183" s="1"/>
-      <c r="J183" s="1"/>
-      <c r="K183" s="1"/>
-      <c r="L183" s="1"/>
-      <c r="M183" s="1"/>
-      <c r="N183" s="1"/>
-      <c r="O183" s="1"/>
-      <c r="P183" s="1"/>
-    </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A184" s="5">
-        <v>3357</v>
-      </c>
-      <c r="B184" s="6">
-        <v>9246</v>
-      </c>
-      <c r="C184" s="5">
-        <v>4</v>
-      </c>
-      <c r="D184" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E184" s="7">
-        <v>41396</v>
-      </c>
-      <c r="F184" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G184" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H184" s="5"/>
-      <c r="I184" s="1"/>
-      <c r="J184" s="1"/>
-      <c r="K184" s="1"/>
-      <c r="L184" s="1"/>
-      <c r="M184" s="1"/>
-      <c r="N184" s="1"/>
-      <c r="O184" s="1"/>
-      <c r="P184" s="1"/>
-    </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A185" s="1">
-        <v>3361</v>
-      </c>
-      <c r="B185" s="3">
-        <v>9371</v>
-      </c>
-      <c r="C185" s="1">
-        <v>4</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E185" s="2">
-        <v>41396</v>
-      </c>
-      <c r="F185" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G185" s="5">
-        <v>16</v>
-      </c>
-      <c r="H185" s="5"/>
-      <c r="I185" s="1"/>
-      <c r="J185" s="1"/>
-      <c r="K185" s="1"/>
-      <c r="L185" s="1"/>
-      <c r="M185" s="1"/>
-      <c r="N185" s="1"/>
-      <c r="O185" s="1"/>
-      <c r="P185" s="1"/>
-    </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A186" s="1">
-        <v>3362</v>
-      </c>
-      <c r="B186" s="3">
-        <v>7015</v>
-      </c>
-      <c r="C186" s="1">
-        <v>6</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E186" s="2">
-        <v>41396</v>
-      </c>
-      <c r="F186" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G186" s="5">
-        <v>16</v>
-      </c>
-      <c r="H186" s="5"/>
-      <c r="I186" s="1"/>
-      <c r="J186" s="1"/>
-      <c r="K186" s="1"/>
-      <c r="L186" s="1"/>
-      <c r="M186" s="1"/>
-      <c r="N186" s="1"/>
-      <c r="O186" s="1"/>
-      <c r="P186" s="1"/>
-    </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A187" s="1">
-        <v>3364</v>
-      </c>
-      <c r="B187" s="3">
-        <v>9051</v>
-      </c>
-      <c r="C187" s="1">
-        <v>4</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E187" s="2">
-        <v>41396</v>
-      </c>
-      <c r="F187" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G187" s="5">
-        <v>128</v>
-      </c>
-      <c r="H187" s="5"/>
-      <c r="I187" s="1"/>
-      <c r="J187" s="1"/>
-      <c r="K187" s="1"/>
-      <c r="L187" s="1"/>
-      <c r="M187" s="1"/>
-      <c r="N187" s="1"/>
-      <c r="O187" s="1"/>
-      <c r="P187" s="1"/>
-    </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A188" s="1">
-        <v>3366</v>
-      </c>
-      <c r="B188" s="3">
-        <v>9250</v>
-      </c>
-      <c r="C188" s="1">
-        <v>4</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E188" s="2">
-        <v>41396</v>
-      </c>
-      <c r="F188" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G188" s="5">
-        <v>8</v>
-      </c>
-      <c r="H188" s="5"/>
-      <c r="I188" s="1"/>
-      <c r="J188" s="1"/>
-      <c r="K188" s="1"/>
-      <c r="L188" s="1"/>
-      <c r="M188" s="1"/>
-      <c r="N188" s="1"/>
-      <c r="O188" s="1"/>
-      <c r="P188" s="1"/>
-    </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A189" s="1">
-        <v>3367</v>
-      </c>
-      <c r="B189" s="3">
-        <v>224</v>
-      </c>
-      <c r="C189" s="1">
-        <v>3</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E189" s="2">
-        <v>41396</v>
-      </c>
-      <c r="F189" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G189" s="5">
-        <v>4</v>
-      </c>
-      <c r="H189" s="5"/>
-      <c r="I189" s="1"/>
-      <c r="J189" s="1"/>
-      <c r="K189" s="1"/>
-      <c r="L189" s="1"/>
-      <c r="M189" s="1"/>
-      <c r="N189" s="1"/>
-      <c r="O189" s="1"/>
-      <c r="P189" s="1"/>
-    </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A190" s="1">
-        <v>3368</v>
-      </c>
-      <c r="B190" s="3">
-        <v>9131</v>
-      </c>
-      <c r="C190" s="1">
-        <v>4</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E190" s="2">
-        <v>41396</v>
-      </c>
-      <c r="F190" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G190" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H190" s="1"/>
-      <c r="I190" s="1"/>
-      <c r="J190" s="1"/>
-      <c r="K190" s="1"/>
-      <c r="L190" s="1"/>
-      <c r="M190" s="1"/>
-      <c r="N190" s="1"/>
-      <c r="O190" s="1"/>
-      <c r="P190" s="1"/>
-    </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A191" s="1">
-        <v>3374</v>
-      </c>
-      <c r="B191" s="3">
-        <v>9242</v>
-      </c>
-      <c r="C191" s="1">
-        <v>4</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E191" s="2">
-        <v>41397</v>
-      </c>
-      <c r="F191" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G191" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H191" s="1"/>
-      <c r="I191" s="1"/>
-      <c r="J191" s="1"/>
-      <c r="K191" s="1"/>
-      <c r="L191" s="1"/>
-      <c r="M191" s="1"/>
-      <c r="N191" s="1"/>
-      <c r="O191" s="1"/>
-      <c r="P191" s="1"/>
-    </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A192" s="1">
-        <v>3377</v>
-      </c>
-      <c r="B192" s="3">
-        <v>9300</v>
-      </c>
-      <c r="C192" s="1">
-        <v>4</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E192" s="2">
-        <v>41397</v>
-      </c>
-      <c r="F192" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G192" s="1">
-        <v>16</v>
-      </c>
-      <c r="H192" s="1"/>
-      <c r="I192" s="1"/>
-      <c r="J192" s="1"/>
-      <c r="K192" s="1"/>
-      <c r="L192" s="1"/>
-      <c r="M192" s="1"/>
-      <c r="N192" s="1"/>
-      <c r="O192" s="1"/>
-      <c r="P192" s="1"/>
-    </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A193" s="1">
-        <v>3392</v>
-      </c>
-      <c r="B193" s="3">
-        <v>9332</v>
-      </c>
-      <c r="C193" s="1">
-        <v>4</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E193" s="2">
-        <v>41401</v>
-      </c>
-      <c r="F193" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G193" s="1">
-        <v>64</v>
-      </c>
-      <c r="H193" s="1"/>
-      <c r="I193" s="1"/>
-      <c r="J193" s="1"/>
-      <c r="K193" s="1"/>
-      <c r="L193" s="1"/>
-      <c r="M193" s="1"/>
-      <c r="N193" s="1"/>
-      <c r="O193" s="1"/>
-      <c r="P193" s="1"/>
-    </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A194" s="1">
-        <v>3395</v>
-      </c>
-      <c r="B194" s="3">
-        <v>9220</v>
-      </c>
-      <c r="C194" s="1">
-        <v>4</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E194" s="2">
-        <v>41401</v>
-      </c>
-      <c r="F194" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G194" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H194" s="1"/>
-      <c r="I194" s="1"/>
-      <c r="J194" s="1"/>
-      <c r="K194" s="1"/>
-      <c r="L194" s="1"/>
-      <c r="M194" s="1"/>
-      <c r="N194" s="1"/>
-      <c r="O194" s="1"/>
-      <c r="P194" s="1"/>
-    </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A195" s="1">
-        <v>3398</v>
-      </c>
-      <c r="B195" s="3">
-        <v>9104</v>
-      </c>
-      <c r="C195" s="1">
-        <v>4</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E195" s="2">
-        <v>41402</v>
-      </c>
-      <c r="F195" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G195" s="1">
-        <v>32</v>
-      </c>
-      <c r="H195" s="1"/>
-      <c r="I195" s="1"/>
-      <c r="J195" s="1"/>
-      <c r="K195" s="1"/>
-      <c r="L195" s="1"/>
-      <c r="M195" s="1"/>
-      <c r="N195" s="1"/>
-      <c r="O195" s="1"/>
-      <c r="P195" s="1"/>
-    </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A196" s="8">
-        <v>3127</v>
-      </c>
-      <c r="B196" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C196" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D196" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E196" s="10">
-        <v>41373</v>
-      </c>
-      <c r="F196" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G196" s="8">
-        <v>64</v>
-      </c>
-      <c r="H196" s="8"/>
-      <c r="I196" s="5"/>
-      <c r="J196" s="5"/>
-      <c r="K196" s="5"/>
-      <c r="L196" s="5"/>
-      <c r="M196" s="5"/>
-      <c r="N196" s="5"/>
-      <c r="O196" s="1"/>
-      <c r="P196" s="1"/>
-    </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A197" s="1">
-        <v>3396</v>
-      </c>
-      <c r="B197" s="1"/>
-      <c r="C197" s="1"/>
-      <c r="D197" s="1"/>
-      <c r="E197" s="1"/>
-      <c r="F197" s="1"/>
-      <c r="G197" s="1"/>
-      <c r="H197" s="1"/>
-      <c r="I197" s="1"/>
-      <c r="J197" s="1"/>
-      <c r="K197" s="1"/>
-      <c r="L197" s="1"/>
-      <c r="M197" s="1"/>
-      <c r="N197" s="1"/>
-      <c r="O197" s="1"/>
-      <c r="P197" s="1"/>
-    </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A198" s="1">
-        <v>3430</v>
-      </c>
-      <c r="B198" s="1"/>
-      <c r="C198" s="1"/>
-      <c r="D198" s="1"/>
-      <c r="E198" s="1"/>
-      <c r="F198" s="1"/>
-      <c r="G198" s="1"/>
-      <c r="H198" s="1"/>
-      <c r="I198" s="1"/>
-      <c r="J198" s="1"/>
-      <c r="K198" s="1"/>
-      <c r="L198" s="1"/>
-      <c r="M198" s="1"/>
-      <c r="N198" s="1"/>
-      <c r="O198" s="5"/>
-      <c r="P198" s="5"/>
-    </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A199" s="1">
-        <v>3295</v>
-      </c>
-      <c r="B199" s="1"/>
-      <c r="C199" s="1"/>
-      <c r="D199" s="1"/>
-      <c r="E199" s="1"/>
-      <c r="F199" s="1"/>
-      <c r="G199" s="1"/>
-      <c r="H199" s="1"/>
-      <c r="I199" s="1"/>
-      <c r="J199" s="1"/>
-      <c r="K199" s="1"/>
-      <c r="L199" s="1"/>
-      <c r="M199" s="1"/>
-      <c r="N199" s="1"/>
-      <c r="O199" s="1"/>
-      <c r="P199" s="1"/>
-    </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A200" s="1">
-        <v>3442</v>
-      </c>
-      <c r="B200" s="1"/>
-      <c r="C200" s="1"/>
-      <c r="D200" s="1"/>
-      <c r="E200" s="1"/>
-      <c r="F200" s="1"/>
-      <c r="G200" s="1"/>
-      <c r="H200" s="1"/>
-      <c r="I200" s="1"/>
-      <c r="J200" s="1"/>
-      <c r="K200" s="1"/>
-      <c r="L200" s="1"/>
-      <c r="M200" s="1"/>
-      <c r="N200" s="1"/>
-      <c r="O200" s="1"/>
-      <c r="P200" s="1"/>
-    </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A201" s="1">
-        <v>3397</v>
-      </c>
-      <c r="B201" s="1"/>
-      <c r="C201" s="1"/>
-      <c r="D201" s="1"/>
-      <c r="E201" s="1"/>
-      <c r="F201" s="1"/>
-      <c r="G201" s="1"/>
-      <c r="H201" s="1"/>
-      <c r="I201" s="1"/>
-      <c r="J201" s="1"/>
-      <c r="K201" s="1"/>
-      <c r="L201" s="1"/>
-      <c r="M201" s="1"/>
-      <c r="N201" s="1"/>
-      <c r="O201" s="1"/>
-      <c r="P201" s="1"/>
-    </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A202" s="1">
-        <v>3436</v>
-      </c>
-      <c r="B202" s="1"/>
-      <c r="C202" s="1"/>
-      <c r="D202" s="1"/>
-      <c r="E202" s="1"/>
-      <c r="F202" s="1"/>
-      <c r="G202" s="1"/>
-      <c r="H202" s="1"/>
-      <c r="I202" s="1"/>
-      <c r="J202" s="1"/>
-      <c r="K202" s="1"/>
-      <c r="L202" s="1"/>
-      <c r="M202" s="1"/>
-      <c r="N202" s="1"/>
-      <c r="O202" s="1"/>
-      <c r="P202" s="1"/>
-    </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A203" s="1">
-        <v>3105</v>
-      </c>
-      <c r="B203" s="1"/>
-      <c r="C203" s="1"/>
-      <c r="D203" s="1"/>
-      <c r="E203" s="1"/>
-      <c r="F203" s="1"/>
-      <c r="G203" s="1"/>
-      <c r="H203" s="1"/>
-      <c r="I203" s="1"/>
-      <c r="J203" s="1"/>
-      <c r="K203" s="1"/>
-      <c r="L203" s="1"/>
-      <c r="M203" s="1"/>
-      <c r="N203" s="1"/>
-      <c r="O203" s="1"/>
-      <c r="P203" s="1"/>
-    </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A204" s="1">
-        <v>3352</v>
-      </c>
-      <c r="B204" s="1"/>
-      <c r="C204" s="1"/>
-      <c r="D204" s="1"/>
-      <c r="E204" s="1"/>
-      <c r="F204" s="1"/>
-      <c r="G204" s="1"/>
-      <c r="H204" s="1"/>
-      <c r="I204" s="1"/>
-      <c r="J204" s="1"/>
-      <c r="K204" s="1"/>
-      <c r="L204" s="1"/>
-      <c r="M204" s="1"/>
-      <c r="N204" s="1"/>
-      <c r="O204" s="1"/>
-      <c r="P204" s="1"/>
-    </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A205" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B205" s="1"/>
-      <c r="C205" s="1"/>
-      <c r="D205" s="1"/>
-      <c r="E205" s="1"/>
-      <c r="F205" s="1"/>
-      <c r="G205" s="1"/>
-      <c r="H205" s="1"/>
-      <c r="I205" s="1"/>
-      <c r="J205" s="1"/>
-      <c r="K205" s="1"/>
-      <c r="L205" s="1"/>
-      <c r="M205" s="1"/>
-      <c r="N205" s="1"/>
-      <c r="O205" s="1"/>
-      <c r="P205" s="1"/>
-    </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A206" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B206" s="1"/>
-      <c r="C206" s="1"/>
-      <c r="D206" s="1"/>
-      <c r="E206" s="1"/>
-      <c r="F206" s="1"/>
-      <c r="G206" s="1"/>
-      <c r="H206" s="1"/>
-      <c r="I206" s="1"/>
-      <c r="J206" s="1"/>
-      <c r="K206" s="1"/>
-      <c r="L206" s="1"/>
-      <c r="M206" s="1"/>
-      <c r="N206" s="1"/>
-      <c r="O206" s="1"/>
-      <c r="P206" s="1"/>
-    </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A207" s="1">
-        <v>3421</v>
-      </c>
-      <c r="B207" s="1"/>
-      <c r="C207" s="1"/>
-      <c r="D207" s="1"/>
-      <c r="E207" s="1"/>
-      <c r="F207" s="1"/>
-      <c r="G207" s="1"/>
-      <c r="H207" s="1"/>
-      <c r="I207" s="1"/>
-      <c r="J207" s="1"/>
-      <c r="K207" s="1"/>
-      <c r="L207" s="1"/>
-      <c r="M207" s="1"/>
-      <c r="N207" s="1"/>
-      <c r="O207" s="1"/>
-      <c r="P207" s="1"/>
-    </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A208" s="1">
-        <v>3425</v>
-      </c>
-      <c r="B208" s="1"/>
-      <c r="C208" s="1"/>
-      <c r="D208" s="1"/>
-      <c r="E208" s="1"/>
-      <c r="F208" s="1"/>
-      <c r="G208" s="1"/>
-      <c r="H208" s="1"/>
-      <c r="I208" s="1"/>
-      <c r="J208" s="1"/>
-      <c r="K208" s="1"/>
-      <c r="L208" s="1"/>
-      <c r="M208" s="1"/>
-      <c r="N208" s="1"/>
-      <c r="O208" s="1"/>
-      <c r="P208" s="1"/>
-    </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A209" s="1">
-        <v>3131</v>
-      </c>
-      <c r="B209" s="1"/>
-      <c r="C209" s="1"/>
-      <c r="D209" s="1"/>
-      <c r="E209" s="1"/>
-      <c r="F209" s="1"/>
-      <c r="G209" s="1"/>
-      <c r="H209" s="1"/>
-      <c r="I209" s="1"/>
-      <c r="J209" s="1"/>
-      <c r="K209" s="1"/>
-      <c r="L209" s="1"/>
-      <c r="M209" s="1"/>
-      <c r="N209" s="1"/>
-      <c r="O209" s="1"/>
-      <c r="P209" s="1"/>
-    </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A210" s="1">
-        <v>3417</v>
-      </c>
-      <c r="B210" s="1"/>
-      <c r="C210" s="1"/>
-      <c r="D210" s="1"/>
-      <c r="E210" s="1"/>
-      <c r="F210" s="1"/>
-      <c r="G210" s="1"/>
-      <c r="H210" s="1"/>
-      <c r="I210" s="1"/>
-      <c r="J210" s="1"/>
-      <c r="K210" s="1"/>
-      <c r="L210" s="1"/>
-      <c r="M210" s="1"/>
-      <c r="N210" s="1"/>
-      <c r="O210" s="1"/>
-      <c r="P210" s="1"/>
-    </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A211" s="1">
-        <v>3058</v>
-      </c>
-      <c r="B211" s="1"/>
-      <c r="C211" s="1"/>
-      <c r="D211" s="1"/>
-      <c r="E211" s="1"/>
-      <c r="F211" s="1"/>
-      <c r="G211" s="1"/>
-      <c r="H211" s="1"/>
-      <c r="I211" s="1"/>
-      <c r="J211" s="1"/>
-      <c r="K211" s="1"/>
-      <c r="L211" s="1"/>
-      <c r="M211" s="1"/>
-      <c r="N211" s="1"/>
-      <c r="O211" s="1"/>
-      <c r="P211" s="1"/>
-    </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A212" s="1">
-        <v>3439</v>
-      </c>
-      <c r="B212" s="1"/>
-      <c r="C212" s="1"/>
-      <c r="D212" s="1"/>
-      <c r="E212" s="1"/>
-      <c r="F212" s="1"/>
-      <c r="G212" s="1"/>
-      <c r="H212" s="1"/>
-      <c r="I212" s="1"/>
-      <c r="J212" s="1"/>
-      <c r="K212" s="1"/>
-      <c r="L212" s="1"/>
-      <c r="M212" s="1"/>
-      <c r="N212" s="1"/>
-      <c r="O212" s="1"/>
-      <c r="P212" s="1"/>
-    </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A213" s="1">
-        <v>3420</v>
-      </c>
-      <c r="B213" s="1"/>
-      <c r="C213" s="1"/>
-      <c r="D213" s="1"/>
-      <c r="E213" s="1"/>
-      <c r="F213" s="1"/>
-      <c r="G213" s="1"/>
-      <c r="H213" s="1"/>
-      <c r="I213" s="1"/>
-      <c r="J213" s="1"/>
-      <c r="K213" s="1"/>
-      <c r="L213" s="1"/>
-      <c r="M213" s="1"/>
-      <c r="N213" s="1"/>
-      <c r="O213" s="1"/>
-      <c r="P213" s="1"/>
-    </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A214" s="1">
-        <v>3435</v>
-      </c>
-      <c r="B214" s="1"/>
-      <c r="C214" s="1"/>
-      <c r="D214" s="1"/>
-      <c r="E214" s="1"/>
-      <c r="F214" s="1"/>
-      <c r="G214" s="1"/>
-      <c r="H214" s="1"/>
-      <c r="I214" s="1"/>
-      <c r="J214" s="1"/>
-      <c r="K214" s="1"/>
-      <c r="L214" s="1"/>
-      <c r="M214" s="1"/>
-      <c r="N214" s="1"/>
-      <c r="O214" s="1"/>
-      <c r="P214" s="1"/>
-    </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A215" s="1">
-        <v>3387</v>
-      </c>
-      <c r="B215" s="1"/>
-      <c r="C215" s="1"/>
-      <c r="D215" s="1"/>
-      <c r="E215" s="1"/>
-      <c r="F215" s="1"/>
-      <c r="G215" s="1"/>
-      <c r="H215" s="1"/>
-      <c r="I215" s="1"/>
-      <c r="J215" s="1"/>
-      <c r="K215" s="1"/>
-      <c r="L215" s="1"/>
-      <c r="M215" s="1"/>
-      <c r="N215" s="1"/>
-      <c r="O215" s="1"/>
-      <c r="P215" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6511,7 +4894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A338" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -6524,58 +4907,58 @@
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="J1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="K1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="L1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="M1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="N1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="O1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="P1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="Q1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="R1" s="15" t="s">
         <v>27</v>
-      </c>
-      <c r="N1" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="R1" s="20" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -6600,37 +4983,37 @@
       <c r="G2" s="1">
         <v>2</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="8">
         <v>1</v>
       </c>
       <c r="I2" s="1">
         <v>8</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="8">
         <v>3</v>
       </c>
       <c r="K2" s="1">
         <v>3</v>
       </c>
-      <c r="L2" s="13">
+      <c r="L2" s="8">
         <v>1.5</v>
       </c>
       <c r="M2" s="5">
         <v>8</v>
       </c>
-      <c r="N2" s="13">
+      <c r="N2" s="8">
         <v>3</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="13">
+      <c r="P2" s="8">
         <v>1</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="12">
+      <c r="R2" s="7">
         <v>1</v>
       </c>
     </row>
@@ -6656,37 +5039,37 @@
       <c r="G3" s="1">
         <v>64</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="8">
         <v>6</v>
       </c>
       <c r="I3" s="1">
         <v>32</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="8">
         <v>5</v>
       </c>
       <c r="K3" s="1">
         <v>16</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="8">
         <v>4</v>
       </c>
       <c r="M3" s="1">
         <v>32</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N3" s="8">
         <v>5</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="13">
+      <c r="P3" s="8">
         <v>1</v>
       </c>
       <c r="Q3" s="4">
         <v>8</v>
       </c>
-      <c r="R3" s="12">
+      <c r="R3" s="7">
         <v>3</v>
       </c>
     </row>
@@ -6712,37 +5095,37 @@
       <c r="G4" s="1">
         <v>16</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="8">
         <v>4</v>
       </c>
       <c r="I4" s="1">
         <v>16</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="8">
         <v>4</v>
       </c>
       <c r="K4" s="1">
         <v>8</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="8">
         <v>3</v>
       </c>
       <c r="M4" s="1">
         <v>32</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="8">
         <v>5</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="13">
+      <c r="P4" s="8">
         <v>1</v>
       </c>
       <c r="Q4" s="4">
         <v>32</v>
       </c>
-      <c r="R4" s="12">
+      <c r="R4" s="7">
         <v>5</v>
       </c>
     </row>
@@ -6768,37 +5151,37 @@
       <c r="G5" s="1">
         <v>2</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="8">
         <v>1</v>
       </c>
       <c r="I5" s="1">
         <v>8</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="8">
         <v>3</v>
       </c>
       <c r="K5" s="1">
         <v>3</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="8">
         <v>1.5</v>
       </c>
       <c r="M5" s="5">
         <v>8</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5" s="8">
         <v>3</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P5" s="13">
+      <c r="P5" s="8">
         <v>1</v>
       </c>
       <c r="Q5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="R5" s="12">
+      <c r="R5" s="7">
         <v>1</v>
       </c>
     </row>
@@ -6824,37 +5207,37 @@
       <c r="G6" s="1">
         <v>2</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="8">
         <v>1</v>
       </c>
       <c r="I6" s="1">
         <v>4</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="8">
         <v>2</v>
       </c>
       <c r="K6" s="1">
         <v>2</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="8">
         <v>1</v>
       </c>
       <c r="M6" s="1">
         <v>8</v>
       </c>
-      <c r="N6" s="13">
+      <c r="N6" s="8">
         <v>3</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P6" s="13">
+      <c r="P6" s="8">
         <v>1</v>
       </c>
       <c r="Q6" s="4">
         <v>16</v>
       </c>
-      <c r="R6" s="12">
+      <c r="R6" s="7">
         <v>4</v>
       </c>
     </row>
@@ -6880,37 +5263,37 @@
       <c r="G7" s="1">
         <v>3</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="8">
         <v>1.5</v>
       </c>
       <c r="I7" s="1">
         <v>8</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="8">
         <v>3</v>
       </c>
       <c r="K7" s="1">
         <v>4</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="8">
         <v>2</v>
       </c>
       <c r="M7" s="1">
         <v>8</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="8">
         <v>3</v>
       </c>
       <c r="O7" s="1">
         <v>4</v>
       </c>
-      <c r="P7" s="13">
+      <c r="P7" s="8">
         <v>2</v>
       </c>
       <c r="Q7" s="4">
         <v>32</v>
       </c>
-      <c r="R7" s="12">
+      <c r="R7" s="7">
         <v>5</v>
       </c>
     </row>
@@ -6936,37 +5319,37 @@
       <c r="G8" s="1">
         <v>4</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="8">
         <v>2</v>
       </c>
       <c r="I8" s="1">
         <v>16</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="8">
         <v>4</v>
       </c>
       <c r="K8" s="1">
         <v>16</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="8">
         <v>4</v>
       </c>
       <c r="M8" s="5">
         <v>4</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8" s="8">
         <v>2</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P8" s="13">
+      <c r="P8" s="8">
         <v>1</v>
       </c>
       <c r="Q8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="R8" s="12">
+      <c r="R8" s="7">
         <v>1</v>
       </c>
     </row>
@@ -6992,37 +5375,37 @@
       <c r="G9" s="1">
         <v>2</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="8">
         <v>1</v>
       </c>
       <c r="I9" s="1">
         <v>4</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="8">
         <v>2</v>
       </c>
       <c r="K9" s="1">
         <v>16</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="8">
         <v>4</v>
       </c>
       <c r="M9" s="5">
         <v>64</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9" s="8">
         <v>6</v>
       </c>
       <c r="O9" s="1">
         <v>8</v>
       </c>
-      <c r="P9" s="13">
+      <c r="P9" s="8">
         <v>3</v>
       </c>
       <c r="Q9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="R9" s="12">
+      <c r="R9" s="7">
         <v>8</v>
       </c>
     </row>
@@ -7048,37 +5431,37 @@
       <c r="G10" s="1">
         <v>2</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="8">
         <v>1</v>
       </c>
       <c r="I10" s="1">
         <v>3</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="8">
         <v>1.5</v>
       </c>
       <c r="K10" s="1">
         <v>2</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="8">
         <v>1</v>
       </c>
       <c r="M10" s="1">
         <v>4</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N10" s="8">
         <v>2</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P10" s="13">
+      <c r="P10" s="8">
         <v>1</v>
       </c>
       <c r="Q10" s="4">
         <v>64</v>
       </c>
-      <c r="R10" s="12">
+      <c r="R10" s="7">
         <v>6</v>
       </c>
     </row>
@@ -7104,37 +5487,37 @@
       <c r="G11" s="1">
         <v>2</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="8">
         <v>1</v>
       </c>
       <c r="I11" s="1">
         <v>2</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="8">
         <v>1</v>
       </c>
       <c r="K11" s="1">
         <v>4</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="8">
         <v>2</v>
       </c>
       <c r="M11" s="1">
         <v>32</v>
       </c>
-      <c r="N11" s="13">
+      <c r="N11" s="8">
         <v>5</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P11" s="13">
+      <c r="P11" s="8">
         <v>1</v>
       </c>
       <c r="Q11" s="4">
         <v>64</v>
       </c>
-      <c r="R11" s="12">
+      <c r="R11" s="7">
         <v>6</v>
       </c>
     </row>
@@ -7160,37 +5543,37 @@
       <c r="G12" s="1">
         <v>128</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="8">
         <v>7</v>
       </c>
       <c r="I12" s="1">
         <v>32</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="8">
         <v>5</v>
       </c>
       <c r="K12" s="1">
         <v>8</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="8">
         <v>3</v>
       </c>
       <c r="M12" s="1">
         <v>8</v>
       </c>
-      <c r="N12" s="13">
+      <c r="N12" s="8">
         <v>3</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P12" s="13">
+      <c r="P12" s="8">
         <v>1</v>
       </c>
       <c r="Q12" s="4">
         <v>8</v>
       </c>
-      <c r="R12" s="12">
+      <c r="R12" s="7">
         <v>3</v>
       </c>
     </row>
@@ -7216,35 +5599,35 @@
       <c r="G13" s="1">
         <v>2</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="8">
         <v>1</v>
       </c>
       <c r="I13" s="1">
         <v>4</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="8">
         <v>2</v>
       </c>
       <c r="K13" s="1">
         <v>4</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="8">
         <v>2</v>
       </c>
       <c r="M13" s="1">
         <v>16</v>
       </c>
-      <c r="N13" s="13">
-        <v>4</v>
-      </c>
-      <c r="O13" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="R13" s="12"/>
+      <c r="N13" s="8">
+        <v>4</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="R13" s="7"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
@@ -7268,37 +5651,37 @@
       <c r="G14" s="1">
         <v>3</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="8">
         <v>1.5</v>
       </c>
       <c r="I14" s="1">
         <v>4</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="8">
         <v>2</v>
       </c>
       <c r="K14" s="1">
         <v>2</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14" s="8">
         <v>1</v>
       </c>
       <c r="M14" s="1">
         <v>16</v>
       </c>
-      <c r="N14" s="13">
+      <c r="N14" s="8">
         <v>4</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P14" s="13">
+      <c r="P14" s="8">
         <v>1</v>
       </c>
       <c r="Q14" s="4">
         <v>32</v>
       </c>
-      <c r="R14" s="12">
+      <c r="R14" s="7">
         <v>5</v>
       </c>
     </row>
@@ -7324,37 +5707,37 @@
       <c r="G15" s="1">
         <v>2</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="8">
         <v>1</v>
       </c>
       <c r="I15" s="1">
         <v>4</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="8">
         <v>2</v>
       </c>
       <c r="K15" s="1">
         <v>8</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="8">
         <v>3</v>
       </c>
       <c r="M15" s="1">
         <v>4</v>
       </c>
-      <c r="N15" s="13">
+      <c r="N15" s="8">
         <v>2</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P15" s="13">
+      <c r="P15" s="8">
         <v>1</v>
       </c>
       <c r="Q15" s="4">
         <v>32</v>
       </c>
-      <c r="R15" s="12">
+      <c r="R15" s="7">
         <v>5</v>
       </c>
     </row>
@@ -7380,37 +5763,37 @@
       <c r="G16" s="1">
         <v>2</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="8">
         <v>1</v>
       </c>
       <c r="I16" s="1">
         <v>3</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="8">
         <v>1.5</v>
       </c>
       <c r="K16" s="1">
         <v>3</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L16" s="8">
         <v>1.5</v>
       </c>
       <c r="M16" s="1">
         <v>32</v>
       </c>
-      <c r="N16" s="13">
+      <c r="N16" s="8">
         <v>5</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P16" s="13">
+      <c r="P16" s="8">
         <v>1</v>
       </c>
       <c r="Q16" s="4">
         <v>8</v>
       </c>
-      <c r="R16" s="12">
+      <c r="R16" s="7">
         <v>3</v>
       </c>
     </row>
@@ -7436,37 +5819,37 @@
       <c r="G17" s="1">
         <v>2</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="8">
         <v>1</v>
       </c>
       <c r="I17" s="1">
         <v>2</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="8">
         <v>1</v>
       </c>
       <c r="K17" s="1">
         <v>4</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="8">
         <v>2</v>
       </c>
       <c r="M17" s="1">
         <v>8</v>
       </c>
-      <c r="N17" s="13">
+      <c r="N17" s="8">
         <v>3</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P17" s="13">
+      <c r="P17" s="8">
         <v>1</v>
       </c>
       <c r="Q17" s="4">
         <v>8</v>
       </c>
-      <c r="R17" s="12">
+      <c r="R17" s="7">
         <v>3</v>
       </c>
     </row>
@@ -7492,37 +5875,37 @@
       <c r="G18" s="1">
         <v>2</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="8">
         <v>1</v>
       </c>
       <c r="I18" s="1">
         <v>2</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="8">
         <v>1</v>
       </c>
       <c r="K18" s="1">
         <v>3</v>
       </c>
-      <c r="L18" s="13">
+      <c r="L18" s="8">
         <v>1.5</v>
       </c>
       <c r="M18" s="1">
         <v>4</v>
       </c>
-      <c r="N18" s="13">
+      <c r="N18" s="8">
         <v>2</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P18" s="13">
+      <c r="P18" s="8">
         <v>1</v>
       </c>
       <c r="Q18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="R18" s="12">
+      <c r="R18" s="7">
         <v>8</v>
       </c>
     </row>
@@ -7548,37 +5931,37 @@
       <c r="G19" s="1">
         <v>2</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="8">
         <v>1</v>
       </c>
       <c r="I19" s="1">
         <v>8</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="8">
         <v>3</v>
       </c>
       <c r="K19" s="1">
         <v>2</v>
       </c>
-      <c r="L19" s="13">
+      <c r="L19" s="8">
         <v>1</v>
       </c>
       <c r="M19" s="1">
         <v>4</v>
       </c>
-      <c r="N19" s="13">
+      <c r="N19" s="8">
         <v>2</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P19" s="13">
+      <c r="P19" s="8">
         <v>1</v>
       </c>
       <c r="Q19" s="4">
         <v>64</v>
       </c>
-      <c r="R19" s="12">
+      <c r="R19" s="7">
         <v>6</v>
       </c>
     </row>
@@ -7604,37 +5987,37 @@
       <c r="G20" s="1">
         <v>4</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="8">
         <v>2</v>
       </c>
       <c r="I20" s="1">
         <v>8</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="8">
         <v>3</v>
       </c>
       <c r="K20" s="1">
         <v>8</v>
       </c>
-      <c r="L20" s="13">
+      <c r="L20" s="8">
         <v>3</v>
       </c>
       <c r="M20" s="1">
         <v>8</v>
       </c>
-      <c r="N20" s="13">
+      <c r="N20" s="8">
         <v>3</v>
       </c>
       <c r="O20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P20" s="13">
+      <c r="P20" s="8">
         <v>1</v>
       </c>
       <c r="Q20" s="4">
         <v>16</v>
       </c>
-      <c r="R20" s="12">
+      <c r="R20" s="7">
         <v>4</v>
       </c>
     </row>
@@ -7660,37 +6043,37 @@
       <c r="G21" s="1">
         <v>2</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="8">
         <v>1</v>
       </c>
       <c r="I21" s="1">
         <v>4</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J21" s="8">
         <v>2</v>
       </c>
       <c r="K21" s="1">
         <v>2</v>
       </c>
-      <c r="L21" s="13">
+      <c r="L21" s="8">
         <v>1</v>
       </c>
       <c r="M21" s="1">
         <v>8</v>
       </c>
-      <c r="N21" s="13">
+      <c r="N21" s="8">
         <v>3</v>
       </c>
       <c r="O21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P21" s="13">
+      <c r="P21" s="8">
         <v>1</v>
       </c>
       <c r="Q21" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="R21" s="12">
+      <c r="R21" s="7">
         <v>1</v>
       </c>
     </row>
@@ -7716,37 +6099,37 @@
       <c r="G22" s="1">
         <v>2</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="8">
         <v>1</v>
       </c>
       <c r="I22" s="1">
         <v>2</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J22" s="8">
         <v>1</v>
       </c>
       <c r="K22" s="1">
         <v>3</v>
       </c>
-      <c r="L22" s="13">
+      <c r="L22" s="8">
         <v>1.5</v>
       </c>
       <c r="M22" s="1">
         <v>16</v>
       </c>
-      <c r="N22" s="13">
+      <c r="N22" s="8">
         <v>4</v>
       </c>
       <c r="O22" s="1">
         <v>4</v>
       </c>
-      <c r="P22" s="13">
+      <c r="P22" s="8">
         <v>2</v>
       </c>
       <c r="Q22" s="4">
         <v>128</v>
       </c>
-      <c r="R22" s="12">
+      <c r="R22" s="7">
         <v>7</v>
       </c>
     </row>
@@ -7772,37 +6155,37 @@
       <c r="G23" s="1">
         <v>8</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="8">
         <v>3</v>
       </c>
       <c r="I23" s="1">
         <v>4</v>
       </c>
-      <c r="J23" s="13">
+      <c r="J23" s="8">
         <v>2</v>
       </c>
       <c r="K23" s="1">
         <v>2</v>
       </c>
-      <c r="L23" s="13">
+      <c r="L23" s="8">
         <v>1</v>
       </c>
       <c r="M23" s="5">
         <v>4</v>
       </c>
-      <c r="N23" s="13">
+      <c r="N23" s="8">
         <v>2</v>
       </c>
       <c r="O23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P23" s="13">
+      <c r="P23" s="8">
         <v>1</v>
       </c>
       <c r="Q23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="R23" s="12">
+      <c r="R23" s="7">
         <v>8</v>
       </c>
     </row>
@@ -7828,37 +6211,37 @@
       <c r="G24" s="1">
         <v>2</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="8">
         <v>1</v>
       </c>
       <c r="I24" s="1">
         <v>4</v>
       </c>
-      <c r="J24" s="13">
+      <c r="J24" s="8">
         <v>2</v>
       </c>
       <c r="K24" s="1">
         <v>2</v>
       </c>
-      <c r="L24" s="13">
+      <c r="L24" s="8">
         <v>1</v>
       </c>
       <c r="M24" s="1">
         <v>8</v>
       </c>
-      <c r="N24" s="13">
+      <c r="N24" s="8">
         <v>3</v>
       </c>
       <c r="O24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P24" s="13">
+      <c r="P24" s="8">
         <v>1</v>
       </c>
       <c r="Q24" s="4">
         <v>32</v>
       </c>
-      <c r="R24" s="12">
+      <c r="R24" s="7">
         <v>5</v>
       </c>
     </row>
@@ -7884,37 +6267,37 @@
       <c r="G25" s="1">
         <v>16</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25" s="8">
         <v>4</v>
       </c>
       <c r="I25" s="1">
         <v>128</v>
       </c>
-      <c r="J25" s="13">
+      <c r="J25" s="8">
         <v>7</v>
       </c>
       <c r="K25" s="1">
         <v>4</v>
       </c>
-      <c r="L25" s="13">
+      <c r="L25" s="8">
         <v>2</v>
       </c>
       <c r="M25" s="1">
         <v>16</v>
       </c>
-      <c r="N25" s="13">
+      <c r="N25" s="8">
         <v>4</v>
       </c>
       <c r="O25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P25" s="13">
+      <c r="P25" s="8">
         <v>1</v>
       </c>
       <c r="Q25" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="R25" s="12">
+      <c r="R25" s="7">
         <v>1</v>
       </c>
     </row>
@@ -7940,37 +6323,37 @@
       <c r="G26" s="1">
         <v>64</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H26" s="8">
         <v>6</v>
       </c>
       <c r="I26" s="1">
         <v>4</v>
       </c>
-      <c r="J26" s="13">
+      <c r="J26" s="8">
         <v>2</v>
       </c>
       <c r="K26" s="1">
         <v>4</v>
       </c>
-      <c r="L26" s="13">
+      <c r="L26" s="8">
         <v>2</v>
       </c>
       <c r="M26" s="1">
         <v>32</v>
       </c>
-      <c r="N26" s="13">
+      <c r="N26" s="8">
         <v>5</v>
       </c>
       <c r="O26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P26" s="13">
+      <c r="P26" s="8">
         <v>1</v>
       </c>
       <c r="Q26" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="R26" s="12">
+      <c r="R26" s="7">
         <v>1</v>
       </c>
     </row>
@@ -7996,37 +6379,37 @@
       <c r="G27" s="1">
         <v>64</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H27" s="8">
         <v>6</v>
       </c>
       <c r="I27" s="1">
         <v>64</v>
       </c>
-      <c r="J27" s="13">
+      <c r="J27" s="8">
         <v>6</v>
       </c>
       <c r="K27" s="1">
         <v>3</v>
       </c>
-      <c r="L27" s="13">
+      <c r="L27" s="8">
         <v>1.5</v>
       </c>
       <c r="M27" s="1">
         <v>16</v>
       </c>
-      <c r="N27" s="13">
+      <c r="N27" s="8">
         <v>4</v>
       </c>
       <c r="O27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P27" s="13">
+      <c r="P27" s="8">
         <v>1</v>
       </c>
       <c r="Q27" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="R27" s="12">
+      <c r="R27" s="7">
         <v>1</v>
       </c>
     </row>
@@ -8052,37 +6435,37 @@
       <c r="G28" s="1">
         <v>256</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H28" s="8">
         <v>8</v>
       </c>
       <c r="I28" s="1">
         <v>4</v>
       </c>
-      <c r="J28" s="13">
+      <c r="J28" s="8">
         <v>2</v>
       </c>
       <c r="K28" s="1">
         <v>32</v>
       </c>
-      <c r="L28" s="13">
+      <c r="L28" s="8">
         <v>5</v>
       </c>
       <c r="M28" s="1">
         <v>128</v>
       </c>
-      <c r="N28" s="13">
+      <c r="N28" s="8">
         <v>7</v>
       </c>
       <c r="O28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P28" s="13">
+      <c r="P28" s="8">
         <v>1</v>
       </c>
       <c r="Q28" s="4">
         <v>8</v>
       </c>
-      <c r="R28" s="12">
+      <c r="R28" s="7">
         <v>3</v>
       </c>
     </row>
@@ -8108,37 +6491,37 @@
       <c r="G29" s="1">
         <v>64</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H29" s="8">
         <v>6</v>
       </c>
       <c r="I29" s="1">
         <v>16</v>
       </c>
-      <c r="J29" s="13">
+      <c r="J29" s="8">
         <v>4</v>
       </c>
       <c r="K29" s="1">
         <v>16</v>
       </c>
-      <c r="L29" s="13">
+      <c r="L29" s="8">
         <v>4</v>
       </c>
       <c r="M29" s="1">
         <v>4</v>
       </c>
-      <c r="N29" s="13">
+      <c r="N29" s="8">
         <v>2</v>
       </c>
       <c r="O29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P29" s="13">
+      <c r="P29" s="8">
         <v>1</v>
       </c>
       <c r="Q29" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="R29" s="12">
+      <c r="R29" s="7">
         <v>1</v>
       </c>
     </row>
@@ -8164,37 +6547,37 @@
       <c r="G30" s="1">
         <v>16</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H30" s="8">
         <v>4</v>
       </c>
       <c r="I30" s="1">
         <v>64</v>
       </c>
-      <c r="J30" s="13">
+      <c r="J30" s="8">
         <v>6</v>
       </c>
       <c r="K30" s="1">
         <v>32</v>
       </c>
-      <c r="L30" s="13">
+      <c r="L30" s="8">
         <v>5</v>
       </c>
       <c r="M30" s="1">
         <v>32</v>
       </c>
-      <c r="N30" s="13">
+      <c r="N30" s="8">
         <v>5</v>
       </c>
       <c r="O30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P30" s="13">
+      <c r="P30" s="8">
         <v>1</v>
       </c>
       <c r="Q30" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="R30" s="12">
+      <c r="R30" s="7">
         <v>1</v>
       </c>
     </row>
@@ -8220,37 +6603,37 @@
       <c r="G31" s="1">
         <v>2</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H31" s="8">
         <v>1</v>
       </c>
       <c r="I31" s="1">
         <v>3</v>
       </c>
-      <c r="J31" s="13">
+      <c r="J31" s="8">
         <v>1.5</v>
       </c>
       <c r="K31" s="1">
         <v>3</v>
       </c>
-      <c r="L31" s="13">
+      <c r="L31" s="8">
         <v>1.5</v>
       </c>
       <c r="M31" s="1">
         <v>8</v>
       </c>
-      <c r="N31" s="13">
+      <c r="N31" s="8">
         <v>3</v>
       </c>
       <c r="O31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P31" s="13">
+      <c r="P31" s="8">
         <v>1</v>
       </c>
       <c r="Q31" s="4">
         <v>16</v>
       </c>
-      <c r="R31" s="12">
+      <c r="R31" s="7">
         <v>4</v>
       </c>
     </row>
@@ -8276,37 +6659,37 @@
       <c r="G32" s="1">
         <v>16</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H32" s="8">
         <v>4</v>
       </c>
       <c r="I32" s="1">
         <v>256</v>
       </c>
-      <c r="J32" s="13">
+      <c r="J32" s="8">
         <v>8</v>
       </c>
       <c r="K32" s="1">
         <v>16</v>
       </c>
-      <c r="L32" s="13">
+      <c r="L32" s="8">
         <v>4</v>
       </c>
       <c r="M32" s="1">
         <v>16</v>
       </c>
-      <c r="N32" s="13">
+      <c r="N32" s="8">
         <v>4</v>
       </c>
       <c r="O32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P32" s="13">
+      <c r="P32" s="8">
         <v>1</v>
       </c>
       <c r="Q32" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="R32" s="12">
+      <c r="R32" s="7">
         <v>1</v>
       </c>
     </row>
@@ -8332,37 +6715,37 @@
       <c r="G33" s="1">
         <v>2</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H33" s="8">
         <v>1</v>
       </c>
       <c r="I33" s="1">
         <v>8</v>
       </c>
-      <c r="J33" s="13">
+      <c r="J33" s="8">
         <v>3</v>
       </c>
       <c r="K33" s="1">
         <v>4</v>
       </c>
-      <c r="L33" s="13">
+      <c r="L33" s="8">
         <v>2</v>
       </c>
       <c r="M33" s="1">
         <v>8</v>
       </c>
-      <c r="N33" s="13">
+      <c r="N33" s="8">
         <v>3</v>
       </c>
       <c r="O33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P33" s="13">
+      <c r="P33" s="8">
         <v>1</v>
       </c>
       <c r="Q33" s="4">
         <v>32</v>
       </c>
-      <c r="R33" s="12">
+      <c r="R33" s="7">
         <v>5</v>
       </c>
     </row>
@@ -8388,37 +6771,37 @@
       <c r="G34" s="1">
         <v>64</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H34" s="8">
         <v>6</v>
       </c>
       <c r="I34" s="1">
         <v>32</v>
       </c>
-      <c r="J34" s="13">
+      <c r="J34" s="8">
         <v>5</v>
       </c>
       <c r="K34" s="1">
         <v>16</v>
       </c>
-      <c r="L34" s="13">
+      <c r="L34" s="8">
         <v>4</v>
       </c>
       <c r="M34" s="1">
         <v>128</v>
       </c>
-      <c r="N34" s="13">
+      <c r="N34" s="8">
         <v>7</v>
       </c>
       <c r="O34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P34" s="13">
+      <c r="P34" s="8">
         <v>1</v>
       </c>
       <c r="Q34" s="4">
         <v>8</v>
       </c>
-      <c r="R34" s="12">
+      <c r="R34" s="7">
         <v>3</v>
       </c>
     </row>
@@ -8444,37 +6827,37 @@
       <c r="G35" s="1">
         <v>2</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H35" s="8">
         <v>1</v>
       </c>
       <c r="I35" s="1">
         <v>4</v>
       </c>
-      <c r="J35" s="13">
+      <c r="J35" s="8">
         <v>2</v>
       </c>
       <c r="K35" s="1">
         <v>2</v>
       </c>
-      <c r="L35" s="13">
+      <c r="L35" s="8">
         <v>1</v>
       </c>
       <c r="M35" s="1">
         <v>8</v>
       </c>
-      <c r="N35" s="13">
+      <c r="N35" s="8">
         <v>3</v>
       </c>
       <c r="O35" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P35" s="13">
+      <c r="P35" s="8">
         <v>1</v>
       </c>
       <c r="Q35" s="4">
         <v>16</v>
       </c>
-      <c r="R35" s="12">
+      <c r="R35" s="7">
         <v>4</v>
       </c>
     </row>
@@ -8500,37 +6883,37 @@
       <c r="G36" s="1">
         <v>32</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H36" s="8">
         <v>5</v>
       </c>
       <c r="I36" s="1">
         <v>64</v>
       </c>
-      <c r="J36" s="13">
+      <c r="J36" s="8">
         <v>6</v>
       </c>
       <c r="K36" s="1">
         <v>3</v>
       </c>
-      <c r="L36" s="13">
+      <c r="L36" s="8">
         <v>1.5</v>
       </c>
       <c r="M36" s="5">
         <v>16</v>
       </c>
-      <c r="N36" s="13">
+      <c r="N36" s="8">
         <v>4</v>
       </c>
       <c r="O36" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P36" s="13">
+      <c r="P36" s="8">
         <v>1</v>
       </c>
       <c r="Q36" s="4">
         <v>8</v>
       </c>
-      <c r="R36" s="12">
+      <c r="R36" s="7">
         <v>3</v>
       </c>
     </row>
@@ -8556,37 +6939,37 @@
       <c r="G37" s="1">
         <v>16</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H37" s="8">
         <v>4</v>
       </c>
       <c r="I37" s="1">
         <v>32</v>
       </c>
-      <c r="J37" s="13">
+      <c r="J37" s="8">
         <v>5</v>
       </c>
       <c r="K37" s="1">
         <v>4</v>
       </c>
-      <c r="L37" s="13">
+      <c r="L37" s="8">
         <v>2</v>
       </c>
       <c r="M37" s="1">
         <v>8</v>
       </c>
-      <c r="N37" s="13">
+      <c r="N37" s="8">
         <v>3</v>
       </c>
       <c r="O37" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P37" s="13">
+      <c r="P37" s="8">
         <v>1</v>
       </c>
       <c r="Q37" s="4">
         <v>32</v>
       </c>
-      <c r="R37" s="12">
+      <c r="R37" s="7">
         <v>5</v>
       </c>
     </row>
@@ -8612,37 +6995,37 @@
       <c r="G38" s="1">
         <v>128</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H38" s="8">
         <v>7</v>
       </c>
       <c r="I38" s="1">
         <v>32</v>
       </c>
-      <c r="J38" s="13">
+      <c r="J38" s="8">
         <v>5</v>
       </c>
       <c r="K38" s="1">
         <v>16</v>
       </c>
-      <c r="L38" s="13">
+      <c r="L38" s="8">
         <v>4</v>
       </c>
       <c r="M38" s="1">
         <v>32</v>
       </c>
-      <c r="N38" s="13">
+      <c r="N38" s="8">
         <v>5</v>
       </c>
       <c r="O38" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P38" s="13">
+      <c r="P38" s="8">
         <v>1</v>
       </c>
       <c r="Q38" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="R38" s="12">
+      <c r="R38" s="7">
         <v>1</v>
       </c>
     </row>
@@ -8668,37 +7051,37 @@
       <c r="G39" s="1">
         <v>32</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H39" s="8">
         <v>5</v>
       </c>
       <c r="I39" s="1">
         <v>16</v>
       </c>
-      <c r="J39" s="13">
+      <c r="J39" s="8">
         <v>4</v>
       </c>
       <c r="K39" s="1">
         <v>8</v>
       </c>
-      <c r="L39" s="13">
+      <c r="L39" s="8">
         <v>3</v>
       </c>
       <c r="M39" s="1">
         <v>8</v>
       </c>
-      <c r="N39" s="13">
+      <c r="N39" s="8">
         <v>3</v>
       </c>
       <c r="O39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P39" s="13">
+      <c r="P39" s="8">
         <v>1</v>
       </c>
       <c r="Q39" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="R39" s="12">
+      <c r="R39" s="7">
         <v>1</v>
       </c>
     </row>
@@ -8724,37 +7107,37 @@
       <c r="G40" s="1">
         <v>32</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H40" s="8">
         <v>5</v>
       </c>
       <c r="I40" s="1">
         <v>32</v>
       </c>
-      <c r="J40" s="13">
+      <c r="J40" s="8">
         <v>5</v>
       </c>
       <c r="K40" s="1">
         <v>4</v>
       </c>
-      <c r="L40" s="13">
+      <c r="L40" s="8">
         <v>2</v>
       </c>
       <c r="M40" s="1">
         <v>8</v>
       </c>
-      <c r="N40" s="13">
+      <c r="N40" s="8">
         <v>3</v>
       </c>
       <c r="O40" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P40" s="13">
+      <c r="P40" s="8">
         <v>1</v>
       </c>
       <c r="Q40" s="4">
         <v>8</v>
       </c>
-      <c r="R40" s="12">
+      <c r="R40" s="7">
         <v>3</v>
       </c>
     </row>
@@ -8780,37 +7163,37 @@
       <c r="G41" s="1">
         <v>8</v>
       </c>
-      <c r="H41" s="13">
+      <c r="H41" s="8">
         <v>3</v>
       </c>
       <c r="I41" s="1">
         <v>8</v>
       </c>
-      <c r="J41" s="13" t="s">
+      <c r="J41" s="8" t="s">
         <v>7</v>
       </c>
       <c r="K41" s="1">
         <v>4</v>
       </c>
-      <c r="L41" s="13">
+      <c r="L41" s="8">
         <v>2</v>
       </c>
       <c r="M41" s="1">
         <v>4</v>
       </c>
-      <c r="N41" s="13">
+      <c r="N41" s="8">
         <v>2</v>
       </c>
       <c r="O41" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P41" s="13">
+      <c r="P41" s="8">
         <v>1</v>
       </c>
       <c r="Q41" s="4">
         <v>32</v>
       </c>
-      <c r="R41" s="12">
+      <c r="R41" s="7">
         <v>5</v>
       </c>
     </row>
@@ -8836,37 +7219,37 @@
       <c r="G42" s="1">
         <v>32</v>
       </c>
-      <c r="H42" s="13">
+      <c r="H42" s="8">
         <v>5</v>
       </c>
       <c r="I42" s="1">
         <v>128</v>
       </c>
-      <c r="J42" s="13">
+      <c r="J42" s="8">
         <v>7</v>
       </c>
       <c r="K42" s="1">
         <v>128</v>
       </c>
-      <c r="L42" s="13">
+      <c r="L42" s="8">
         <v>7</v>
       </c>
       <c r="M42" s="5">
         <v>128</v>
       </c>
-      <c r="N42" s="13">
+      <c r="N42" s="8">
         <v>7</v>
       </c>
       <c r="O42" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P42" s="13">
+      <c r="P42" s="8">
         <v>1</v>
       </c>
       <c r="Q42" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="R42" s="12">
+      <c r="R42" s="7">
         <v>1</v>
       </c>
     </row>
@@ -8892,37 +7275,37 @@
       <c r="G43" s="1">
         <v>2</v>
       </c>
-      <c r="H43" s="13">
+      <c r="H43" s="8">
         <v>1</v>
       </c>
       <c r="I43" s="1">
         <v>3</v>
       </c>
-      <c r="J43" s="13">
+      <c r="J43" s="8">
         <v>1.5</v>
       </c>
       <c r="K43" s="1">
         <v>8</v>
       </c>
-      <c r="L43" s="13">
+      <c r="L43" s="8">
         <v>3</v>
       </c>
       <c r="M43" s="1">
         <v>4</v>
       </c>
-      <c r="N43" s="13">
+      <c r="N43" s="8">
         <v>2</v>
       </c>
       <c r="O43" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P43" s="13">
+      <c r="P43" s="8">
         <v>1</v>
       </c>
       <c r="Q43" s="4">
         <v>8</v>
       </c>
-      <c r="R43" s="12">
+      <c r="R43" s="7">
         <v>3</v>
       </c>
     </row>
@@ -8948,37 +7331,37 @@
       <c r="G44" s="1">
         <v>2</v>
       </c>
-      <c r="H44" s="13">
+      <c r="H44" s="8">
         <v>1</v>
       </c>
       <c r="I44" s="1">
         <v>2</v>
       </c>
-      <c r="J44" s="13">
+      <c r="J44" s="8">
         <v>1</v>
       </c>
       <c r="K44" s="1">
         <v>3</v>
       </c>
-      <c r="L44" s="13">
+      <c r="L44" s="8">
         <v>1.5</v>
       </c>
       <c r="M44" s="1">
         <v>8</v>
       </c>
-      <c r="N44" s="13">
+      <c r="N44" s="8">
         <v>3</v>
       </c>
       <c r="O44" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P44" s="13">
+      <c r="P44" s="8">
         <v>1</v>
       </c>
       <c r="Q44" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="R44" s="12">
+      <c r="R44" s="7">
         <v>1</v>
       </c>
     </row>
@@ -9004,37 +7387,37 @@
       <c r="G45" s="1">
         <v>16</v>
       </c>
-      <c r="H45" s="13">
+      <c r="H45" s="8">
         <v>4</v>
       </c>
       <c r="I45" s="1">
         <v>16</v>
       </c>
-      <c r="J45" s="13">
+      <c r="J45" s="8">
         <v>4</v>
       </c>
       <c r="K45" s="1">
         <v>4</v>
       </c>
-      <c r="L45" s="13">
+      <c r="L45" s="8">
         <v>2</v>
       </c>
       <c r="M45" s="1">
         <v>16</v>
       </c>
-      <c r="N45" s="13">
+      <c r="N45" s="8">
         <v>4</v>
       </c>
       <c r="O45" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P45" s="13">
+      <c r="P45" s="8">
         <v>1</v>
       </c>
       <c r="Q45" s="4">
         <v>4</v>
       </c>
-      <c r="R45" s="12">
+      <c r="R45" s="7">
         <v>2</v>
       </c>
     </row>
@@ -9060,37 +7443,37 @@
       <c r="G46" s="1">
         <v>8</v>
       </c>
-      <c r="H46" s="13">
+      <c r="H46" s="8">
         <v>3</v>
       </c>
       <c r="I46" s="1">
         <v>8</v>
       </c>
-      <c r="J46" s="13">
+      <c r="J46" s="8">
         <v>3</v>
       </c>
       <c r="K46" s="1">
         <v>3</v>
       </c>
-      <c r="L46" s="13">
+      <c r="L46" s="8">
         <v>1.5</v>
       </c>
       <c r="M46" s="1">
         <v>8</v>
       </c>
-      <c r="N46" s="13">
+      <c r="N46" s="8">
         <v>3</v>
       </c>
       <c r="O46" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P46" s="13">
+      <c r="P46" s="8">
         <v>1</v>
       </c>
       <c r="Q46" s="4">
         <v>8</v>
       </c>
-      <c r="R46" s="12">
+      <c r="R46" s="7">
         <v>3</v>
       </c>
     </row>
@@ -9116,37 +7499,37 @@
       <c r="G47" s="1">
         <v>32</v>
       </c>
-      <c r="H47" s="13">
+      <c r="H47" s="8">
         <v>5</v>
       </c>
       <c r="I47" s="1">
         <v>16</v>
       </c>
-      <c r="J47" s="13">
+      <c r="J47" s="8">
         <v>4</v>
       </c>
       <c r="K47" s="1">
         <v>64</v>
       </c>
-      <c r="L47" s="13">
+      <c r="L47" s="8">
         <v>6</v>
       </c>
       <c r="M47" s="1">
         <v>64</v>
       </c>
-      <c r="N47" s="13">
+      <c r="N47" s="8">
         <v>6</v>
       </c>
       <c r="O47" s="1">
         <v>4</v>
       </c>
-      <c r="P47" s="13">
+      <c r="P47" s="8">
         <v>2</v>
       </c>
       <c r="Q47" s="4">
         <v>4</v>
       </c>
-      <c r="R47" s="12">
+      <c r="R47" s="7">
         <v>2</v>
       </c>
     </row>
@@ -9172,35 +7555,35 @@
       <c r="G48" s="1">
         <v>4</v>
       </c>
-      <c r="H48" s="13">
+      <c r="H48" s="8">
         <v>2</v>
       </c>
       <c r="I48" s="1">
         <v>16</v>
       </c>
-      <c r="J48" s="13">
+      <c r="J48" s="8">
         <v>4</v>
       </c>
       <c r="K48" s="1">
         <v>8</v>
       </c>
-      <c r="L48" s="13">
+      <c r="L48" s="8">
         <v>3</v>
       </c>
       <c r="M48" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N48" s="13"/>
+      <c r="N48" s="8"/>
       <c r="O48" s="1">
         <v>4</v>
       </c>
-      <c r="P48" s="13">
+      <c r="P48" s="8">
         <v>2</v>
       </c>
       <c r="Q48" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="R48" s="12">
+      <c r="R48" s="7">
         <v>1</v>
       </c>
     </row>
@@ -9226,37 +7609,37 @@
       <c r="G49" s="1">
         <v>64</v>
       </c>
-      <c r="H49" s="13">
+      <c r="H49" s="8">
         <v>6</v>
       </c>
       <c r="I49" s="1">
         <v>32</v>
       </c>
-      <c r="J49" s="13">
+      <c r="J49" s="8">
         <v>5</v>
       </c>
       <c r="K49" s="1">
         <v>64</v>
       </c>
-      <c r="L49" s="13">
+      <c r="L49" s="8">
         <v>6</v>
       </c>
       <c r="M49" s="1">
         <v>32</v>
       </c>
-      <c r="N49" s="13">
+      <c r="N49" s="8">
         <v>5</v>
       </c>
       <c r="O49" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P49" s="13">
+      <c r="P49" s="8">
         <v>1</v>
       </c>
       <c r="Q49" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="R49" s="12">
+      <c r="R49" s="7">
         <v>1</v>
       </c>
     </row>
@@ -9282,37 +7665,37 @@
       <c r="G50" s="1">
         <v>32</v>
       </c>
-      <c r="H50" s="13">
+      <c r="H50" s="8">
         <v>5</v>
       </c>
       <c r="I50" s="1">
         <v>32</v>
       </c>
-      <c r="J50" s="13">
+      <c r="J50" s="8">
         <v>5</v>
       </c>
       <c r="K50" s="1">
         <v>8</v>
       </c>
-      <c r="L50" s="13">
+      <c r="L50" s="8">
         <v>3</v>
       </c>
       <c r="M50" s="1">
         <v>32</v>
       </c>
-      <c r="N50" s="13">
+      <c r="N50" s="8">
         <v>5</v>
       </c>
       <c r="O50" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P50" s="13">
+      <c r="P50" s="8">
         <v>1</v>
       </c>
       <c r="Q50" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="R50" s="12">
+      <c r="R50" s="7">
         <v>1</v>
       </c>
     </row>
@@ -9338,37 +7721,37 @@
       <c r="G51" s="1">
         <v>4</v>
       </c>
-      <c r="H51" s="13">
+      <c r="H51" s="8">
         <v>2</v>
       </c>
       <c r="I51" s="1">
         <v>4</v>
       </c>
-      <c r="J51" s="13">
+      <c r="J51" s="8">
         <v>2</v>
       </c>
       <c r="K51" s="1">
         <v>16</v>
       </c>
-      <c r="L51" s="13">
+      <c r="L51" s="8">
         <v>4</v>
       </c>
       <c r="M51" s="1">
         <v>8</v>
       </c>
-      <c r="N51" s="13">
+      <c r="N51" s="8">
         <v>3</v>
       </c>
       <c r="O51" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P51" s="13">
+      <c r="P51" s="8">
         <v>1</v>
       </c>
       <c r="Q51" s="4">
         <v>64</v>
       </c>
-      <c r="R51" s="12">
+      <c r="R51" s="7">
         <v>6</v>
       </c>
     </row>
@@ -9394,37 +7777,37 @@
       <c r="G52" s="1">
         <v>16</v>
       </c>
-      <c r="H52" s="13">
+      <c r="H52" s="8">
         <v>4</v>
       </c>
       <c r="I52" s="1">
         <v>16</v>
       </c>
-      <c r="J52" s="13">
+      <c r="J52" s="8">
         <v>4</v>
       </c>
       <c r="K52" s="1">
         <v>3</v>
       </c>
-      <c r="L52" s="13">
+      <c r="L52" s="8">
         <v>1.5</v>
       </c>
       <c r="M52" s="1">
         <v>16</v>
       </c>
-      <c r="N52" s="13">
+      <c r="N52" s="8">
         <v>4</v>
       </c>
       <c r="O52" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P52" s="13">
+      <c r="P52" s="8">
         <v>1</v>
       </c>
       <c r="Q52" s="4">
         <v>8</v>
       </c>
-      <c r="R52" s="12">
+      <c r="R52" s="7">
         <v>3</v>
       </c>
     </row>
@@ -9450,37 +7833,37 @@
       <c r="G53" s="1">
         <v>16</v>
       </c>
-      <c r="H53" s="13">
+      <c r="H53" s="8">
         <v>4</v>
       </c>
       <c r="I53" s="1">
         <v>32</v>
       </c>
-      <c r="J53" s="13">
+      <c r="J53" s="8">
         <v>5</v>
       </c>
       <c r="K53" s="1">
         <v>8</v>
       </c>
-      <c r="L53" s="13">
+      <c r="L53" s="8">
         <v>3</v>
       </c>
       <c r="M53" s="1">
         <v>16</v>
       </c>
-      <c r="N53" s="13">
+      <c r="N53" s="8">
         <v>4</v>
       </c>
       <c r="O53" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P53" s="13">
+      <c r="P53" s="8">
         <v>1</v>
       </c>
       <c r="Q53" s="4">
         <v>16</v>
       </c>
-      <c r="R53" s="12">
+      <c r="R53" s="7">
         <v>4</v>
       </c>
     </row>
@@ -9506,37 +7889,37 @@
       <c r="G54" s="1">
         <v>64</v>
       </c>
-      <c r="H54" s="13">
+      <c r="H54" s="8">
         <v>6</v>
       </c>
       <c r="I54" s="1">
         <v>64</v>
       </c>
-      <c r="J54" s="13">
+      <c r="J54" s="8">
         <v>6</v>
       </c>
       <c r="K54" s="1">
         <v>128</v>
       </c>
-      <c r="L54" s="13">
+      <c r="L54" s="8">
         <v>7</v>
       </c>
       <c r="M54" s="1">
         <v>128</v>
       </c>
-      <c r="N54" s="13">
+      <c r="N54" s="8">
         <v>7</v>
       </c>
       <c r="O54" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P54" s="13">
+      <c r="P54" s="8">
         <v>1</v>
       </c>
       <c r="Q54" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="R54" s="12">
+      <c r="R54" s="7">
         <v>1</v>
       </c>
     </row>
@@ -9562,37 +7945,37 @@
       <c r="G55" s="1">
         <v>2</v>
       </c>
-      <c r="H55" s="13">
+      <c r="H55" s="8">
         <v>1</v>
       </c>
       <c r="I55" s="1">
         <v>4</v>
       </c>
-      <c r="J55" s="13">
+      <c r="J55" s="8">
         <v>2</v>
       </c>
       <c r="K55" s="1">
         <v>4</v>
       </c>
-      <c r="L55" s="13">
+      <c r="L55" s="8">
         <v>2</v>
       </c>
       <c r="M55" s="1">
         <v>16</v>
       </c>
-      <c r="N55" s="13">
+      <c r="N55" s="8">
         <v>4</v>
       </c>
       <c r="O55" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P55" s="13">
+      <c r="P55" s="8">
         <v>1</v>
       </c>
       <c r="Q55" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="R55" s="12">
+      <c r="R55" s="7">
         <v>1</v>
       </c>
     </row>
@@ -9618,37 +8001,37 @@
       <c r="G56" s="1">
         <v>16</v>
       </c>
-      <c r="H56" s="13">
+      <c r="H56" s="8">
         <v>4</v>
       </c>
       <c r="I56" s="1">
         <v>8</v>
       </c>
-      <c r="J56" s="13">
+      <c r="J56" s="8">
         <v>3</v>
       </c>
       <c r="K56" s="1">
         <v>4</v>
       </c>
-      <c r="L56" s="13">
+      <c r="L56" s="8">
         <v>2</v>
       </c>
       <c r="M56" s="1">
         <v>32</v>
       </c>
-      <c r="N56" s="13">
+      <c r="N56" s="8">
         <v>5</v>
       </c>
       <c r="O56" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P56" s="13">
+      <c r="P56" s="8">
         <v>1</v>
       </c>
       <c r="Q56" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="R56" s="12">
+      <c r="R56" s="7">
         <v>1</v>
       </c>
     </row>
@@ -9674,37 +8057,37 @@
       <c r="G57" s="1">
         <v>8</v>
       </c>
-      <c r="H57" s="13">
+      <c r="H57" s="8">
         <v>3</v>
       </c>
       <c r="I57" s="1">
         <v>4</v>
       </c>
-      <c r="J57" s="13">
+      <c r="J57" s="8">
         <v>2</v>
       </c>
       <c r="K57" s="1">
         <v>4</v>
       </c>
-      <c r="L57" s="13">
+      <c r="L57" s="8">
         <v>2</v>
       </c>
       <c r="M57" s="5">
         <v>16</v>
       </c>
-      <c r="N57" s="13">
+      <c r="N57" s="8">
         <v>4</v>
       </c>
       <c r="O57" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P57" s="13">
+      <c r="P57" s="8">
         <v>1</v>
       </c>
       <c r="Q57" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="R57" s="12">
+      <c r="R57" s="7">
         <v>1</v>
       </c>
     </row>
@@ -9730,37 +8113,37 @@
       <c r="G58" s="1">
         <v>16</v>
       </c>
-      <c r="H58" s="13">
+      <c r="H58" s="8">
         <v>4</v>
       </c>
       <c r="I58" s="1">
         <v>16</v>
       </c>
-      <c r="J58" s="13">
+      <c r="J58" s="8">
         <v>4</v>
       </c>
       <c r="K58" s="1">
         <v>32</v>
       </c>
-      <c r="L58" s="13">
+      <c r="L58" s="8">
         <v>5</v>
       </c>
       <c r="M58" s="1">
         <v>32</v>
       </c>
-      <c r="N58" s="13">
+      <c r="N58" s="8">
         <v>5</v>
       </c>
       <c r="O58" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P58" s="13">
+      <c r="P58" s="8">
         <v>1</v>
       </c>
       <c r="Q58" s="4">
         <v>16</v>
       </c>
-      <c r="R58" s="12">
+      <c r="R58" s="7">
         <v>4</v>
       </c>
     </row>
@@ -9786,37 +8169,37 @@
       <c r="G59" s="1">
         <v>16</v>
       </c>
-      <c r="H59" s="13">
+      <c r="H59" s="8">
         <v>4</v>
       </c>
       <c r="I59" s="1">
         <v>32</v>
       </c>
-      <c r="J59" s="13">
+      <c r="J59" s="8">
         <v>5</v>
       </c>
       <c r="K59" s="1">
         <v>16</v>
       </c>
-      <c r="L59" s="13">
+      <c r="L59" s="8">
         <v>4</v>
       </c>
       <c r="M59" s="1">
         <v>128</v>
       </c>
-      <c r="N59" s="13">
+      <c r="N59" s="8">
         <v>7</v>
       </c>
       <c r="O59" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P59" s="13">
+      <c r="P59" s="8">
         <v>1</v>
       </c>
       <c r="Q59" s="4">
         <v>4</v>
       </c>
-      <c r="R59" s="12">
+      <c r="R59" s="7">
         <v>2</v>
       </c>
     </row>
@@ -9842,37 +8225,37 @@
       <c r="G60" s="1">
         <v>32</v>
       </c>
-      <c r="H60" s="13">
+      <c r="H60" s="8">
         <v>5</v>
       </c>
       <c r="I60" s="1">
         <v>32</v>
       </c>
-      <c r="J60" s="13">
+      <c r="J60" s="8">
         <v>5</v>
       </c>
       <c r="K60" s="1">
         <v>8</v>
       </c>
-      <c r="L60" s="13" t="s">
+      <c r="L60" s="8" t="s">
         <v>7</v>
       </c>
       <c r="M60" s="5">
         <v>16</v>
       </c>
-      <c r="N60" s="13">
+      <c r="N60" s="8">
         <v>4</v>
       </c>
       <c r="O60" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P60" s="13">
+      <c r="P60" s="8">
         <v>1</v>
       </c>
       <c r="Q60" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="R60" s="12">
+      <c r="R60" s="7">
         <v>1</v>
       </c>
     </row>
@@ -9898,37 +8281,37 @@
       <c r="G61" s="1">
         <v>16</v>
       </c>
-      <c r="H61" s="13">
+      <c r="H61" s="8">
         <v>4</v>
       </c>
       <c r="I61" s="1">
         <v>128</v>
       </c>
-      <c r="J61" s="13">
+      <c r="J61" s="8">
         <v>7</v>
       </c>
       <c r="K61" s="1">
         <v>32</v>
       </c>
-      <c r="L61" s="13">
+      <c r="L61" s="8">
         <v>5</v>
       </c>
       <c r="M61" s="1">
         <v>16</v>
       </c>
-      <c r="N61" s="13">
+      <c r="N61" s="8">
         <v>4</v>
       </c>
       <c r="O61" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P61" s="13">
+      <c r="P61" s="8">
         <v>1</v>
       </c>
       <c r="Q61" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="R61" s="12">
+      <c r="R61" s="7">
         <v>1</v>
       </c>
     </row>
@@ -9954,37 +8337,37 @@
       <c r="G62" s="1">
         <v>8</v>
       </c>
-      <c r="H62" s="13">
+      <c r="H62" s="8">
         <v>3</v>
       </c>
       <c r="I62" s="1">
         <v>128</v>
       </c>
-      <c r="J62" s="13">
+      <c r="J62" s="8">
         <v>7</v>
       </c>
       <c r="K62" s="1">
         <v>8</v>
       </c>
-      <c r="L62" s="13">
+      <c r="L62" s="8">
         <v>3</v>
       </c>
       <c r="M62" s="5">
         <v>64</v>
       </c>
-      <c r="N62" s="13">
+      <c r="N62" s="8">
         <v>6</v>
       </c>
       <c r="O62" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P62" s="13">
+      <c r="P62" s="8">
         <v>1</v>
       </c>
       <c r="Q62" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="R62" s="12">
+      <c r="R62" s="7">
         <v>1</v>
       </c>
     </row>
@@ -10010,37 +8393,37 @@
       <c r="G63" s="1">
         <v>256</v>
       </c>
-      <c r="H63" s="13">
+      <c r="H63" s="8">
         <v>8</v>
       </c>
       <c r="I63" s="1">
         <v>64</v>
       </c>
-      <c r="J63" s="13">
+      <c r="J63" s="8">
         <v>6</v>
       </c>
       <c r="K63" s="1">
         <v>16</v>
       </c>
-      <c r="L63" s="13">
+      <c r="L63" s="8">
         <v>4</v>
       </c>
       <c r="M63" s="1">
         <v>32</v>
       </c>
-      <c r="N63" s="13">
+      <c r="N63" s="8">
         <v>5</v>
       </c>
       <c r="O63" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P63" s="13">
+      <c r="P63" s="8">
         <v>1</v>
       </c>
       <c r="Q63" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="R63" s="12">
+      <c r="R63" s="7">
         <v>1</v>
       </c>
     </row>
@@ -10066,37 +8449,37 @@
       <c r="G64" s="1">
         <v>32</v>
       </c>
-      <c r="H64" s="13">
+      <c r="H64" s="8">
         <v>5</v>
       </c>
       <c r="I64" s="1">
         <v>64</v>
       </c>
-      <c r="J64" s="13">
+      <c r="J64" s="8">
         <v>6</v>
       </c>
       <c r="K64" s="1">
         <v>8</v>
       </c>
-      <c r="L64" s="13">
+      <c r="L64" s="8">
         <v>3</v>
       </c>
       <c r="M64" s="1">
         <v>16</v>
       </c>
-      <c r="N64" s="13">
+      <c r="N64" s="8">
         <v>4</v>
       </c>
       <c r="O64" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P64" s="13">
+      <c r="P64" s="8">
         <v>1</v>
       </c>
       <c r="Q64" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="R64" s="12">
+      <c r="R64" s="7">
         <v>1</v>
       </c>
     </row>
@@ -10122,37 +8505,37 @@
       <c r="G65" s="1">
         <v>8</v>
       </c>
-      <c r="H65" s="13">
+      <c r="H65" s="8">
         <v>3</v>
       </c>
       <c r="I65" s="1">
         <v>4</v>
       </c>
-      <c r="J65" s="13">
+      <c r="J65" s="8">
         <v>2</v>
       </c>
       <c r="K65" s="1">
         <v>3</v>
       </c>
-      <c r="L65" s="13">
+      <c r="L65" s="8">
         <v>1.5</v>
       </c>
       <c r="M65" s="1">
         <v>8</v>
       </c>
-      <c r="N65" s="13">
+      <c r="N65" s="8">
         <v>3</v>
       </c>
       <c r="O65" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P65" s="13">
+      <c r="P65" s="8">
         <v>1</v>
       </c>
       <c r="Q65" s="4">
         <v>16</v>
       </c>
-      <c r="R65" s="12">
+      <c r="R65" s="7">
         <v>4</v>
       </c>
     </row>
@@ -10178,37 +8561,37 @@
       <c r="G66" s="1">
         <v>2</v>
       </c>
-      <c r="H66" s="13">
+      <c r="H66" s="8">
         <v>1</v>
       </c>
       <c r="I66" s="1">
         <v>4</v>
       </c>
-      <c r="J66" s="13">
+      <c r="J66" s="8">
         <v>2</v>
       </c>
       <c r="K66" s="1">
         <v>16</v>
       </c>
-      <c r="L66" s="13">
+      <c r="L66" s="8">
         <v>4</v>
       </c>
       <c r="M66" s="1">
         <v>4</v>
       </c>
-      <c r="N66" s="13">
+      <c r="N66" s="8">
         <v>2</v>
       </c>
       <c r="O66" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P66" s="13">
+      <c r="P66" s="8">
         <v>1</v>
       </c>
       <c r="Q66" s="4">
         <v>8</v>
       </c>
-      <c r="R66" s="12">
+      <c r="R66" s="7">
         <v>3</v>
       </c>
     </row>
@@ -10234,37 +8617,37 @@
       <c r="G67" s="1">
         <v>32</v>
       </c>
-      <c r="H67" s="13">
+      <c r="H67" s="8">
         <v>5</v>
       </c>
       <c r="I67" s="1">
         <v>64</v>
       </c>
-      <c r="J67" s="13">
+      <c r="J67" s="8">
         <v>6</v>
       </c>
       <c r="K67" s="1">
         <v>16</v>
       </c>
-      <c r="L67" s="13">
+      <c r="L67" s="8">
         <v>4</v>
       </c>
       <c r="M67" s="1">
         <v>16</v>
       </c>
-      <c r="N67" s="13">
+      <c r="N67" s="8">
         <v>4</v>
       </c>
       <c r="O67" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P67" s="13">
+      <c r="P67" s="8">
         <v>1</v>
       </c>
       <c r="Q67" s="4">
         <v>16</v>
       </c>
-      <c r="R67" s="12">
+      <c r="R67" s="7">
         <v>4</v>
       </c>
     </row>
@@ -10290,37 +8673,37 @@
       <c r="G68" s="1">
         <v>4</v>
       </c>
-      <c r="H68" s="13">
+      <c r="H68" s="8">
         <v>2</v>
       </c>
       <c r="I68" s="1">
         <v>4</v>
       </c>
-      <c r="J68" s="13">
+      <c r="J68" s="8">
         <v>2</v>
       </c>
       <c r="K68" s="1">
         <v>4</v>
       </c>
-      <c r="L68" s="13">
+      <c r="L68" s="8">
         <v>2</v>
       </c>
       <c r="M68" s="1">
         <v>3</v>
       </c>
-      <c r="N68" s="13">
+      <c r="N68" s="8">
         <v>1.5</v>
       </c>
       <c r="O68" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P68" s="13">
+      <c r="P68" s="8">
         <v>1</v>
       </c>
       <c r="Q68" s="4">
         <v>4</v>
       </c>
-      <c r="R68" s="12">
+      <c r="R68" s="7">
         <v>2</v>
       </c>
     </row>
@@ -10346,37 +8729,37 @@
       <c r="G69" s="1">
         <v>2</v>
       </c>
-      <c r="H69" s="13">
+      <c r="H69" s="8">
         <v>1</v>
       </c>
       <c r="I69" s="1">
         <v>3</v>
       </c>
-      <c r="J69" s="13">
+      <c r="J69" s="8">
         <v>1.5</v>
       </c>
       <c r="K69" s="1">
         <v>4</v>
       </c>
-      <c r="L69" s="13">
+      <c r="L69" s="8">
         <v>2</v>
       </c>
       <c r="M69" s="5">
         <v>8</v>
       </c>
-      <c r="N69" s="13">
+      <c r="N69" s="8">
         <v>3</v>
       </c>
       <c r="O69" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P69" s="13">
+      <c r="P69" s="8">
         <v>1</v>
       </c>
       <c r="Q69" s="4">
         <v>8</v>
       </c>
-      <c r="R69" s="12">
+      <c r="R69" s="7">
         <v>3</v>
       </c>
     </row>
@@ -10402,37 +8785,37 @@
       <c r="G70" s="1">
         <v>8</v>
       </c>
-      <c r="H70" s="13">
+      <c r="H70" s="8">
         <v>3</v>
       </c>
       <c r="I70" s="1">
         <v>32</v>
       </c>
-      <c r="J70" s="13">
+      <c r="J70" s="8">
         <v>5</v>
       </c>
       <c r="K70" s="1">
         <v>32</v>
       </c>
-      <c r="L70" s="13">
+      <c r="L70" s="8">
         <v>5</v>
       </c>
       <c r="M70" s="1">
         <v>32</v>
       </c>
-      <c r="N70" s="13">
+      <c r="N70" s="8">
         <v>5</v>
       </c>
       <c r="O70" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P70" s="13">
+      <c r="P70" s="8">
         <v>1</v>
       </c>
       <c r="Q70" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="R70" s="12">
+      <c r="R70" s="7">
         <v>1</v>
       </c>
     </row>
@@ -10458,37 +8841,37 @@
       <c r="G71" s="1">
         <v>256</v>
       </c>
-      <c r="H71" s="13">
+      <c r="H71" s="8">
         <v>8</v>
       </c>
       <c r="I71" s="1">
         <v>128</v>
       </c>
-      <c r="J71" s="13">
+      <c r="J71" s="8">
         <v>7</v>
       </c>
       <c r="K71" s="1">
         <v>32</v>
       </c>
-      <c r="L71" s="13">
+      <c r="L71" s="8">
         <v>5</v>
       </c>
       <c r="M71" s="5">
         <v>64</v>
       </c>
-      <c r="N71" s="13">
+      <c r="N71" s="8">
         <v>6</v>
       </c>
       <c r="O71" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P71" s="13">
+      <c r="P71" s="8">
         <v>1</v>
       </c>
       <c r="Q71" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="R71" s="12">
+      <c r="R71" s="7">
         <v>1</v>
       </c>
     </row>
@@ -10514,37 +8897,37 @@
       <c r="G72" s="1">
         <v>4</v>
       </c>
-      <c r="H72" s="13">
+      <c r="H72" s="8">
         <v>2</v>
       </c>
       <c r="I72" s="1">
         <v>16</v>
       </c>
-      <c r="J72" s="13">
+      <c r="J72" s="8">
         <v>4</v>
       </c>
       <c r="K72" s="1">
         <v>8</v>
       </c>
-      <c r="L72" s="13">
+      <c r="L72" s="8">
         <v>3</v>
       </c>
       <c r="M72" s="1">
         <v>8</v>
       </c>
-      <c r="N72" s="13">
+      <c r="N72" s="8">
         <v>3</v>
       </c>
       <c r="O72" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P72" s="13">
+      <c r="P72" s="8">
         <v>1</v>
       </c>
       <c r="Q72" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="R72" s="12">
+      <c r="R72" s="7">
         <v>1</v>
       </c>
     </row>
@@ -10570,37 +8953,37 @@
       <c r="G73" s="1">
         <v>32</v>
       </c>
-      <c r="H73" s="13">
+      <c r="H73" s="8">
         <v>5</v>
       </c>
       <c r="I73" s="1">
         <v>8</v>
       </c>
-      <c r="J73" s="13">
+      <c r="J73" s="8">
         <v>3</v>
       </c>
       <c r="K73" s="1">
         <v>8</v>
       </c>
-      <c r="L73" s="13">
+      <c r="L73" s="8">
         <v>3</v>
       </c>
       <c r="M73" s="1">
         <v>4</v>
       </c>
-      <c r="N73" s="13">
+      <c r="N73" s="8">
         <v>2</v>
       </c>
       <c r="O73" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P73" s="13">
+      <c r="P73" s="8">
         <v>1</v>
       </c>
       <c r="Q73" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="R73" s="12">
+      <c r="R73" s="7">
         <v>1</v>
       </c>
     </row>
@@ -10626,37 +9009,37 @@
       <c r="G74" s="1">
         <v>256</v>
       </c>
-      <c r="H74" s="13">
+      <c r="H74" s="8">
         <v>8</v>
       </c>
       <c r="I74" s="1">
         <v>128</v>
       </c>
-      <c r="J74" s="13">
+      <c r="J74" s="8">
         <v>7</v>
       </c>
       <c r="K74" s="1">
         <v>256</v>
       </c>
-      <c r="L74" s="13">
+      <c r="L74" s="8">
         <v>8</v>
       </c>
       <c r="M74" s="1">
         <v>128</v>
       </c>
-      <c r="N74" s="13">
+      <c r="N74" s="8">
         <v>7</v>
       </c>
       <c r="O74" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P74" s="13">
+      <c r="P74" s="8">
         <v>1</v>
       </c>
       <c r="Q74" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="R74" s="12">
+      <c r="R74" s="7">
         <v>1</v>
       </c>
     </row>
@@ -10682,37 +9065,37 @@
       <c r="G75" s="1">
         <v>4</v>
       </c>
-      <c r="H75" s="13">
+      <c r="H75" s="8">
         <v>2</v>
       </c>
       <c r="I75" s="1">
         <v>16</v>
       </c>
-      <c r="J75" s="13">
+      <c r="J75" s="8">
         <v>4</v>
       </c>
       <c r="K75" s="1">
         <v>8</v>
       </c>
-      <c r="L75" s="13">
+      <c r="L75" s="8">
         <v>3</v>
       </c>
       <c r="M75" s="1">
         <v>16</v>
       </c>
-      <c r="N75" s="13">
+      <c r="N75" s="8">
         <v>4</v>
       </c>
       <c r="O75" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P75" s="13">
+      <c r="P75" s="8">
         <v>1</v>
       </c>
       <c r="Q75" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="R75" s="12">
+      <c r="R75" s="7">
         <v>1</v>
       </c>
     </row>
@@ -10738,37 +9121,37 @@
       <c r="G76" s="1">
         <v>4</v>
       </c>
-      <c r="H76" s="13">
+      <c r="H76" s="8">
         <v>2</v>
       </c>
       <c r="I76" s="1">
         <v>16</v>
       </c>
-      <c r="J76" s="13">
+      <c r="J76" s="8">
         <v>4</v>
       </c>
       <c r="K76" s="1">
         <v>2</v>
       </c>
-      <c r="L76" s="13">
+      <c r="L76" s="8">
         <v>1</v>
       </c>
       <c r="M76" s="1">
         <v>4</v>
       </c>
-      <c r="N76" s="13">
+      <c r="N76" s="8">
         <v>2</v>
       </c>
       <c r="O76" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P76" s="13">
+      <c r="P76" s="8">
         <v>1</v>
       </c>
       <c r="Q76" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="R76" s="12">
+      <c r="R76" s="7">
         <v>1</v>
       </c>
     </row>
@@ -10779,18 +9162,18 @@
       <c r="D77" s="1"/>
       <c r="E77" s="2"/>
       <c r="F77" s="1"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="11"/>
-      <c r="I77" s="11"/>
-      <c r="J77" s="11"/>
-      <c r="K77" s="11"/>
-      <c r="L77" s="11"/>
-      <c r="M77" s="11"/>
-      <c r="N77" s="11"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6"/>
+      <c r="N77" s="6"/>
       <c r="O77" s="1"/>
-      <c r="P77" s="11"/>
+      <c r="P77" s="6"/>
       <c r="Q77" s="4"/>
-      <c r="R77" s="11"/>
+      <c r="R77" s="6"/>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
@@ -10855,16 +9238,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/codeLibrary/R/R/NDSU13.xlsx
+++ b/codeLibrary/R/R/NDSU13.xlsx
@@ -8,20 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2D2F37-AFB6-EB4A-8C0D-C589D4A0078C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0497436D-8E64-B143-9CE1-9A291CD39BDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11140" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tx1" sheetId="1" r:id="rId1"/>
     <sheet name="Tx2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="34">
   <si>
     <t>Com. Angus</t>
   </si>
@@ -106,6 +117,24 @@
   <si>
     <t>GMT174</t>
   </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>mean of D</t>
+  </si>
+  <si>
+    <t>STDV of D</t>
+  </si>
+  <si>
+    <t>T value</t>
+  </si>
+  <si>
+    <t>Critical value for .95</t>
+  </si>
+  <si>
+    <t>Refect null hypothesis that the medicine made no dif because absolute val ot T is greater than Critical value</t>
+  </si>
 </sst>
 </file>
 
@@ -114,7 +143,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +166,14 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -180,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -211,6 +248,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R80"/>
   <sheetViews>
-    <sheetView topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="A157" sqref="A157:XFD297"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4894,7 +4932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A338" workbookViewId="0">
+    <sheetView topLeftCell="A338" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -9238,4 +9276,977 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B320D731-F9F0-874F-867F-5CE4F4F47C0B}">
+  <dimension ref="A1:I82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="101" workbookViewId="0">
+      <selection activeCell="G82" sqref="G82"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
+        <v>4</v>
+      </c>
+      <c r="B2" s="8">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <f>A2-B2</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
+        <v>3</v>
+      </c>
+      <c r="B3" s="8">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <f>A3-B3</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
+        <v>4</v>
+      </c>
+      <c r="B4" s="8">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <f>A4-B4</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1">
+        <f>A5-B5</f>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="B6" s="8">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <f>A6-B6</f>
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <f>A7-B7</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
+        <v>2</v>
+      </c>
+      <c r="B8" s="8">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <f>A8-B8</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
+        <v>2</v>
+      </c>
+      <c r="B9" s="8">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <f>A9-B9</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
+        <v>2</v>
+      </c>
+      <c r="B10" s="8">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
+        <f>A10-B10</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="B11" s="8">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1">
+        <f>A11-B11</f>
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
+        <v>8</v>
+      </c>
+      <c r="B12" s="8">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1">
+        <f>A12-B12</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="8">
+        <v>4</v>
+      </c>
+      <c r="B13" s="8">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1">
+        <f>A13-B13</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
+        <v>2</v>
+      </c>
+      <c r="B14" s="8">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1">
+        <f>A14-B14</f>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="8">
+        <v>2</v>
+      </c>
+      <c r="B15" s="8">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1">
+        <f>A15-B15</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="8">
+        <v>4</v>
+      </c>
+      <c r="B16" s="8">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1">
+        <f>A16-B16</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="8">
+        <v>3</v>
+      </c>
+      <c r="B17" s="8">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1">
+        <f>A17-B17</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="8">
+        <v>3</v>
+      </c>
+      <c r="B18" s="8">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1">
+        <f>A18-B18</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="8">
+        <v>5</v>
+      </c>
+      <c r="B19" s="8">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1">
+        <f>A19-B19</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
+        <v>1</v>
+      </c>
+      <c r="B20" s="8">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1">
+        <f>A20-B20</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="8">
+        <v>3</v>
+      </c>
+      <c r="B21" s="8">
+        <v>6</v>
+      </c>
+      <c r="C21" s="1">
+        <f>A21-B21</f>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="8">
+        <v>4</v>
+      </c>
+      <c r="B22" s="8">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1">
+        <f>A22-B22</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="8">
+        <v>3</v>
+      </c>
+      <c r="B23" s="8">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1">
+        <f>A23-B23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="8">
+        <v>7</v>
+      </c>
+      <c r="B24" s="8">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1">
+        <f>A24-B24</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="8">
+        <v>5</v>
+      </c>
+      <c r="B25" s="8">
+        <v>6</v>
+      </c>
+      <c r="C25" s="1">
+        <f>A25-B25</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="8">
+        <v>3</v>
+      </c>
+      <c r="B26" s="8">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1">
+        <f>A26-B26</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="8">
+        <v>2</v>
+      </c>
+      <c r="B27" s="8">
+        <v>6</v>
+      </c>
+      <c r="C27" s="1">
+        <f>A27-B27</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="8">
+        <v>4</v>
+      </c>
+      <c r="B28" s="8">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1">
+        <f>A28-B28</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="8">
+        <v>2</v>
+      </c>
+      <c r="B29" s="8">
+        <v>6</v>
+      </c>
+      <c r="C29" s="1">
+        <f>A29-B29</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="8">
+        <v>8</v>
+      </c>
+      <c r="B30" s="8">
+        <v>8</v>
+      </c>
+      <c r="C30" s="1">
+        <f>A30-B30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="B31" s="8">
+        <v>3</v>
+      </c>
+      <c r="C31" s="1">
+        <f>A31-B31</f>
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="8">
+        <v>3</v>
+      </c>
+      <c r="B32" s="8">
+        <v>4</v>
+      </c>
+      <c r="C32" s="1">
+        <f>A32-B32</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="8">
+        <v>3</v>
+      </c>
+      <c r="B33" s="8">
+        <v>3</v>
+      </c>
+      <c r="C33" s="1">
+        <f>A33-B33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="8">
+        <v>6</v>
+      </c>
+      <c r="B34" s="8">
+        <v>3</v>
+      </c>
+      <c r="C34" s="1">
+        <f>A34-B34</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="8">
+        <v>5</v>
+      </c>
+      <c r="B35" s="8">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1">
+        <f>A35-B35</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="8">
+        <v>2</v>
+      </c>
+      <c r="B36" s="8">
+        <v>4</v>
+      </c>
+      <c r="C36" s="1">
+        <f>A36-B36</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="8">
+        <v>5</v>
+      </c>
+      <c r="B37" s="8">
+        <v>7</v>
+      </c>
+      <c r="C37" s="1">
+        <f>A37-B37</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="8">
+        <v>5</v>
+      </c>
+      <c r="B38" s="8">
+        <v>3</v>
+      </c>
+      <c r="C38" s="1">
+        <f>A38-B38</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="8">
+        <v>5</v>
+      </c>
+      <c r="B39" s="8">
+        <v>7</v>
+      </c>
+      <c r="C39" s="1">
+        <f>A39-B39</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="8">
+        <v>5</v>
+      </c>
+      <c r="B40" s="8">
+        <v>4</v>
+      </c>
+      <c r="C40" s="1">
+        <f>A40-B40</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="8">
+        <v>4</v>
+      </c>
+      <c r="B41" s="8">
+        <v>2</v>
+      </c>
+      <c r="C41" s="1">
+        <f>A41-B41</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="8">
+        <v>6</v>
+      </c>
+      <c r="B42" s="8">
+        <v>6</v>
+      </c>
+      <c r="C42" s="1">
+        <f>A42-B42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="8">
+        <v>8</v>
+      </c>
+      <c r="B43" s="8">
+        <v>6</v>
+      </c>
+      <c r="C43" s="1">
+        <f>A43-B43</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="8">
+        <v>3</v>
+      </c>
+      <c r="B44" s="8">
+        <v>3</v>
+      </c>
+      <c r="C44" s="1">
+        <f>A44-B44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="8">
+        <v>5</v>
+      </c>
+      <c r="B45" s="8">
+        <v>4</v>
+      </c>
+      <c r="C45" s="1">
+        <f>A45-B45</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="8">
+        <v>7</v>
+      </c>
+      <c r="B46" s="8">
+        <v>5</v>
+      </c>
+      <c r="C46" s="1">
+        <f>A46-B46</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="8">
+        <v>4</v>
+      </c>
+      <c r="B47" s="8">
+        <v>2</v>
+      </c>
+      <c r="C47" s="1">
+        <f>A47-B47</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="8">
+        <v>4</v>
+      </c>
+      <c r="B48" s="8">
+        <v>4</v>
+      </c>
+      <c r="C48" s="1">
+        <f>A48-B48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="8">
+        <v>4</v>
+      </c>
+      <c r="B49" s="8">
+        <v>4</v>
+      </c>
+      <c r="C49" s="1">
+        <f>A49-B49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="8">
+        <v>4</v>
+      </c>
+      <c r="B50" s="8">
+        <v>4</v>
+      </c>
+      <c r="C50" s="1">
+        <f>A50-B50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="8">
+        <v>3</v>
+      </c>
+      <c r="B51" s="8">
+        <v>3</v>
+      </c>
+      <c r="C51" s="1">
+        <f>A51-B51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="8">
+        <v>7</v>
+      </c>
+      <c r="B52" s="8">
+        <v>5</v>
+      </c>
+      <c r="C52" s="1">
+        <f>A52-B52</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="8">
+        <v>4</v>
+      </c>
+      <c r="B53" s="8">
+        <v>5</v>
+      </c>
+      <c r="C53" s="1">
+        <f>A53-B53</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="8">
+        <v>3</v>
+      </c>
+      <c r="B54" s="8">
+        <v>4</v>
+      </c>
+      <c r="C54" s="1">
+        <f>A54-B54</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="8">
+        <v>3</v>
+      </c>
+      <c r="B55" s="8">
+        <v>5</v>
+      </c>
+      <c r="C55" s="1">
+        <f>A55-B55</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="B56" s="8">
+        <v>3</v>
+      </c>
+      <c r="C56" s="1">
+        <f>A56-B56</f>
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="8">
+        <v>3</v>
+      </c>
+      <c r="B57" s="8">
+        <v>4</v>
+      </c>
+      <c r="C57" s="1">
+        <f>A57-B57</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="8">
+        <v>2</v>
+      </c>
+      <c r="B58" s="8">
+        <v>2</v>
+      </c>
+      <c r="C58" s="1">
+        <f>A58-B58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="8">
+        <v>2</v>
+      </c>
+      <c r="B59" s="8">
+        <v>5</v>
+      </c>
+      <c r="C59" s="1">
+        <f>A59-B59</f>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="8">
+        <v>5</v>
+      </c>
+      <c r="B60" s="8">
+        <v>3</v>
+      </c>
+      <c r="C60" s="1">
+        <f>A60-B60</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="8">
+        <v>2</v>
+      </c>
+      <c r="B61" s="8">
+        <v>3</v>
+      </c>
+      <c r="C61" s="1">
+        <f>A61-B61</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="8">
+        <v>6</v>
+      </c>
+      <c r="B62" s="8">
+        <v>8</v>
+      </c>
+      <c r="C62" s="1">
+        <f>A62-B62</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="8">
+        <v>7</v>
+      </c>
+      <c r="B63" s="8">
+        <v>3</v>
+      </c>
+      <c r="C63" s="1">
+        <f>A63-B63</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="8">
+        <v>5</v>
+      </c>
+      <c r="B64" s="8">
+        <v>5</v>
+      </c>
+      <c r="C64" s="1">
+        <f>A64-B64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="8">
+        <v>3</v>
+      </c>
+      <c r="B65" s="8">
+        <v>4</v>
+      </c>
+      <c r="C65" s="1">
+        <f>A65-B65</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="8">
+        <v>4</v>
+      </c>
+      <c r="B66" s="8">
+        <v>4</v>
+      </c>
+      <c r="C66" s="1">
+        <f>A66-B66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="8">
+        <v>5</v>
+      </c>
+      <c r="B67" s="8">
+        <v>8</v>
+      </c>
+      <c r="C67" s="1">
+        <f>A67-B67</f>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="8">
+        <v>2</v>
+      </c>
+      <c r="B68" s="8">
+        <v>5</v>
+      </c>
+      <c r="C68" s="1">
+        <f>A68-B68</f>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="B69" s="8">
+        <v>5</v>
+      </c>
+      <c r="C69" s="1">
+        <f>A69-B69</f>
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="8">
+        <v>6</v>
+      </c>
+      <c r="B70" s="8">
+        <v>7</v>
+      </c>
+      <c r="C70" s="1">
+        <f>A70-B70</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="8">
+        <v>4</v>
+      </c>
+      <c r="B71" s="8">
+        <v>5</v>
+      </c>
+      <c r="C71" s="1">
+        <f>A71-B71</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="8">
+        <v>7</v>
+      </c>
+      <c r="B72" s="8">
+        <v>7</v>
+      </c>
+      <c r="C72" s="1">
+        <f>A72-B72</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="8">
+        <v>3</v>
+      </c>
+      <c r="B73" s="8">
+        <v>5</v>
+      </c>
+      <c r="C73" s="1">
+        <f>A73-B73</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="8">
+        <v>3</v>
+      </c>
+      <c r="B74" s="8">
+        <v>3</v>
+      </c>
+      <c r="C74" s="1">
+        <f>A74-B74</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="B75" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="C75" s="1">
+        <f>A75-B75</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="8">
+        <v>5</v>
+      </c>
+      <c r="B76" s="8">
+        <v>7</v>
+      </c>
+      <c r="C76" s="1">
+        <f>A76-B76</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" s="6"/>
+      <c r="B77" s="6"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C78" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E78" t="s">
+        <v>30</v>
+      </c>
+      <c r="F78" t="s">
+        <v>31</v>
+      </c>
+      <c r="G78" t="s">
+        <v>32</v>
+      </c>
+      <c r="I78" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C79">
+        <f>AVERAGE(C2:C76)</f>
+        <v>-0.78</v>
+      </c>
+      <c r="E79">
+        <f>STDEV(C2:C76)</f>
+        <v>1.9403956130477968</v>
+      </c>
+      <c r="F79">
+        <f>((C79-0)/(E79/SQRT(75)))</f>
+        <v>-3.4812478981585029</v>
+      </c>
+      <c r="G79" s="16">
+        <v>-1.66</v>
+      </c>
+    </row>
+    <row r="82" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G82">
+        <f>_xlfn.T.INV(0.95,74)</f>
+        <v>1.6657068927340244</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>